--- a/app/templates/protocol_template.xlsx
+++ b/app/templates/protocol_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radziulek\Desktop\Sędziowanie\PROTOKOŁY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1C823-F5A7-4CD9-B8D6-B2C348704675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5C2AA-758D-4AC9-8D1C-06BCCD28823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,6 +928,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -940,15 +949,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1024,12 +1024,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,6 +1105,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1129,17 +1135,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,8 +1264,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>49238</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
@@ -1331,8 +1331,8 @@
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>17585</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1399,7 +1399,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:colOff>96716</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -1465,8 +1465,8 @@
           <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>2345</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -1532,8 +1532,8 @@
           <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>48065</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -1599,8 +1599,8 @@
           <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>9965</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -1666,8 +1666,8 @@
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>2045</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1733,8 +1733,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>56872</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -1800,8 +1800,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>87352</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -1867,8 +1867,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>87352</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -1934,8 +1934,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>64492</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2001,8 +2001,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>29</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>72111</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2068,8 +2068,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>64493</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2135,8 +2135,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>87353</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2202,8 +2202,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>2046</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2269,8 +2269,8 @@
           <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>87353</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -2336,8 +2336,8 @@
           <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>2046</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -2404,7 +2404,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>71120</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2471,7 +2471,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>81476</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2538,7 +2538,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>71120</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2604,8 +2604,8 @@
           <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>2345</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -2671,8 +2671,8 @@
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>2345</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
@@ -2739,7 +2739,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>86360</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -2803,8 +2803,8 @@
       <xdr:rowOff>21363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47088</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>149551</xdr:rowOff>
     </xdr:to>
@@ -3138,19 +3138,25 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:BM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21:AH21"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15:AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="11" width="2.109375" customWidth="1"/>
-    <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="43" width="2.109375" customWidth="1"/>
+    <col min="1" max="2" width="2.109375" customWidth="1"/>
+    <col min="3" max="16" width="1.77734375" customWidth="1"/>
+    <col min="17" max="22" width="1.6640625" customWidth="1"/>
+    <col min="23" max="37" width="1.33203125" customWidth="1"/>
+    <col min="38" max="41" width="1.6640625" customWidth="1"/>
+    <col min="42" max="43" width="1.5546875" customWidth="1"/>
     <col min="44" max="44" width="1.21875" bestFit="1" customWidth="1"/>
-    <col min="45" max="54" width="2.109375" customWidth="1"/>
+    <col min="45" max="46" width="1.5546875" customWidth="1"/>
+    <col min="47" max="52" width="1.6640625" customWidth="1"/>
+    <col min="53" max="54" width="1.5546875" customWidth="1"/>
     <col min="55" max="55" width="1.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="59" width="2.109375" customWidth="1"/>
+    <col min="56" max="57" width="1.5546875" customWidth="1"/>
+    <col min="58" max="59" width="1.6640625" customWidth="1"/>
     <col min="61" max="65" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
@@ -3305,29 +3311,29 @@
       </c>
       <c r="S3" s="122"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="115" t="s">
+      <c r="U3" s="118" t="s">
         <v>58</v>
       </c>
       <c r="V3" s="120"/>
       <c r="W3" s="120"/>
       <c r="X3" s="120"/>
-      <c r="Y3" s="116"/>
+      <c r="Y3" s="119"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="115" t="s">
+      <c r="AA3" s="118" t="s">
         <v>63</v>
       </c>
       <c r="AB3" s="120"/>
       <c r="AC3" s="120"/>
       <c r="AD3" s="120"/>
-      <c r="AE3" s="116"/>
+      <c r="AE3" s="119"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="115" t="s">
+      <c r="AG3" s="118" t="s">
         <v>67</v>
       </c>
       <c r="AH3" s="120"/>
       <c r="AI3" s="120"/>
       <c r="AJ3" s="120"/>
-      <c r="AK3" s="116"/>
+      <c r="AK3" s="119"/>
       <c r="AL3" s="19" t="s">
         <v>44</v>
       </c>
@@ -3356,47 +3362,47 @@
     <row r="4" spans="1:61" ht="13.2" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="181"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="173"/>
       <c r="R4" s="123"/>
       <c r="S4" s="124"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="118" t="s">
         <v>59</v>
       </c>
       <c r="V4" s="120"/>
       <c r="W4" s="120"/>
       <c r="X4" s="120"/>
-      <c r="Y4" s="116"/>
+      <c r="Y4" s="119"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="115" t="s">
+      <c r="AA4" s="118" t="s">
         <v>64</v>
       </c>
       <c r="AB4" s="120"/>
       <c r="AC4" s="120"/>
       <c r="AD4" s="120"/>
-      <c r="AE4" s="116"/>
+      <c r="AE4" s="119"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="115" t="s">
+      <c r="AG4" s="118" t="s">
         <v>68</v>
       </c>
       <c r="AH4" s="120"/>
       <c r="AI4" s="120"/>
       <c r="AJ4" s="120"/>
-      <c r="AK4" s="116"/>
+      <c r="AK4" s="119"/>
       <c r="AL4" s="25"/>
       <c r="AM4" s="26"/>
       <c r="AN4" s="26"/>
@@ -3423,47 +3429,47 @@
     <row r="5" spans="1:61" ht="13.2" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="183"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="175"/>
       <c r="R5" s="123"/>
       <c r="S5" s="124"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="115" t="s">
+      <c r="U5" s="118" t="s">
         <v>60</v>
       </c>
       <c r="V5" s="120"/>
       <c r="W5" s="120"/>
       <c r="X5" s="120"/>
-      <c r="Y5" s="116"/>
+      <c r="Y5" s="119"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="115" t="s">
+      <c r="AA5" s="118" t="s">
         <v>65</v>
       </c>
       <c r="AB5" s="120"/>
       <c r="AC5" s="120"/>
       <c r="AD5" s="120"/>
-      <c r="AE5" s="116"/>
+      <c r="AE5" s="119"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="115" t="s">
+      <c r="AG5" s="118" t="s">
         <v>69</v>
       </c>
       <c r="AH5" s="120"/>
       <c r="AI5" s="120"/>
       <c r="AJ5" s="120"/>
-      <c r="AK5" s="116"/>
+      <c r="AK5" s="119"/>
       <c r="AL5" s="28"/>
       <c r="AM5" s="29"/>
       <c r="AN5" s="29"/>
@@ -3510,143 +3516,143 @@
       <c r="R6" s="123"/>
       <c r="S6" s="124"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="115" t="s">
+      <c r="U6" s="118" t="s">
         <v>61</v>
       </c>
       <c r="V6" s="120"/>
       <c r="W6" s="120"/>
       <c r="X6" s="120"/>
-      <c r="Y6" s="116"/>
+      <c r="Y6" s="119"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="115" t="s">
+      <c r="AA6" s="118" t="s">
         <v>66</v>
       </c>
       <c r="AB6" s="120"/>
       <c r="AC6" s="120"/>
       <c r="AD6" s="120"/>
-      <c r="AE6" s="116"/>
+      <c r="AE6" s="119"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="115" t="s">
+      <c r="AG6" s="118" t="s">
         <v>70</v>
       </c>
       <c r="AH6" s="120"/>
       <c r="AI6" s="120"/>
       <c r="AJ6" s="120"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="147"/>
-      <c r="AM6" s="148"/>
-      <c r="AN6" s="148"/>
-      <c r="AO6" s="148"/>
-      <c r="AP6" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ6" s="148"/>
-      <c r="AR6" s="148"/>
-      <c r="AS6" s="148"/>
-      <c r="AT6" s="148"/>
-      <c r="AU6" s="148"/>
-      <c r="AV6" s="148"/>
-      <c r="AW6" s="148"/>
-      <c r="AX6" s="148" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY6" s="148"/>
-      <c r="AZ6" s="148"/>
-      <c r="BA6" s="151"/>
-      <c r="BB6" s="147"/>
-      <c r="BC6" s="148"/>
-      <c r="BD6" s="148"/>
-      <c r="BE6" s="148"/>
-      <c r="BF6" s="148"/>
-      <c r="BG6" s="151"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="146"/>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ6" s="146"/>
+      <c r="AR6" s="146"/>
+      <c r="AS6" s="146"/>
+      <c r="AT6" s="146"/>
+      <c r="AU6" s="146"/>
+      <c r="AV6" s="146"/>
+      <c r="AW6" s="146"/>
+      <c r="AX6" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY6" s="146"/>
+      <c r="AZ6" s="146"/>
+      <c r="BA6" s="149"/>
+      <c r="BB6" s="145"/>
+      <c r="BC6" s="146"/>
+      <c r="BD6" s="146"/>
+      <c r="BE6" s="146"/>
+      <c r="BF6" s="146"/>
+      <c r="BG6" s="149"/>
     </row>
     <row r="7" spans="1:61" ht="13.2" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="181"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="173"/>
       <c r="R7" s="123"/>
       <c r="S7" s="124"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="115" t="s">
+      <c r="U7" s="118" t="s">
         <v>62</v>
       </c>
       <c r="V7" s="120"/>
       <c r="W7" s="120"/>
       <c r="X7" s="120"/>
-      <c r="Y7" s="116"/>
+      <c r="Y7" s="119"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="115" t="s">
+      <c r="AA7" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="116"/>
+      <c r="AB7" s="119"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="115" t="s">
+      <c r="AD7" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="116"/>
+      <c r="AE7" s="119"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="115" t="s">
+      <c r="AG7" s="118" t="s">
         <v>71</v>
       </c>
       <c r="AH7" s="120"/>
       <c r="AI7" s="120"/>
       <c r="AJ7" s="120"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="149"/>
-      <c r="AM7" s="150"/>
-      <c r="AN7" s="150"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="150"/>
-      <c r="AQ7" s="150"/>
-      <c r="AR7" s="150"/>
-      <c r="AS7" s="150"/>
-      <c r="AT7" s="150"/>
-      <c r="AU7" s="150"/>
-      <c r="AV7" s="150"/>
-      <c r="AW7" s="150"/>
-      <c r="AX7" s="150"/>
-      <c r="AY7" s="150"/>
-      <c r="AZ7" s="150"/>
-      <c r="BA7" s="152"/>
-      <c r="BB7" s="149"/>
-      <c r="BC7" s="150"/>
-      <c r="BD7" s="150"/>
-      <c r="BE7" s="150"/>
-      <c r="BF7" s="150"/>
-      <c r="BG7" s="152"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="147"/>
+      <c r="AM7" s="148"/>
+      <c r="AN7" s="148"/>
+      <c r="AO7" s="148"/>
+      <c r="AP7" s="148"/>
+      <c r="AQ7" s="148"/>
+      <c r="AR7" s="148"/>
+      <c r="AS7" s="148"/>
+      <c r="AT7" s="148"/>
+      <c r="AU7" s="148"/>
+      <c r="AV7" s="148"/>
+      <c r="AW7" s="148"/>
+      <c r="AX7" s="148"/>
+      <c r="AY7" s="148"/>
+      <c r="AZ7" s="148"/>
+      <c r="BA7" s="150"/>
+      <c r="BB7" s="147"/>
+      <c r="BC7" s="148"/>
+      <c r="BD7" s="148"/>
+      <c r="BE7" s="148"/>
+      <c r="BF7" s="148"/>
+      <c r="BG7" s="150"/>
     </row>
     <row r="8" spans="1:61" ht="13.2" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="182"/>
-      <c r="Q8" s="183"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="125"/>
       <c r="S8" s="126"/>
       <c r="T8" s="3"/>
@@ -3872,27 +3878,27 @@
       <c r="N11" s="84"/>
       <c r="O11" s="84"/>
       <c r="P11" s="109"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="118"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="115"/>
       <c r="S11" s="42"/>
-      <c r="T11" s="118"/>
+      <c r="T11" s="115"/>
       <c r="U11" s="42"/>
-      <c r="V11" s="118"/>
+      <c r="V11" s="115"/>
       <c r="W11" s="42"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="118"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="115"/>
       <c r="Z11" s="42"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="118"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="115"/>
       <c r="AC11" s="42"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="118"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="115"/>
       <c r="AF11" s="42"/>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="118"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="115"/>
       <c r="AI11" s="42"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="118"/>
+      <c r="AJ11" s="114"/>
+      <c r="AK11" s="115"/>
       <c r="AL11" s="127"/>
       <c r="AM11" s="128"/>
       <c r="AN11" s="110" t="s">
@@ -3938,65 +3944,65 @@
       <c r="N12" s="84"/>
       <c r="O12" s="84"/>
       <c r="P12" s="109"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="119"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="119"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="168" t="s">
+      <c r="Q12" s="113"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="115"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="AM12" s="169"/>
-      <c r="AN12" s="162" t="s">
+      <c r="AM12" s="167"/>
+      <c r="AN12" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="153" t="s">
+      <c r="AO12" s="161"/>
+      <c r="AP12" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="AQ12" s="154"/>
-      <c r="AR12" s="154"/>
-      <c r="AS12" s="154"/>
-      <c r="AT12" s="155"/>
-      <c r="AU12" s="162" t="s">
+      <c r="AQ12" s="152"/>
+      <c r="AR12" s="152"/>
+      <c r="AS12" s="152"/>
+      <c r="AT12" s="153"/>
+      <c r="AU12" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="AV12" s="163"/>
-      <c r="AW12" s="168" t="s">
+      <c r="AV12" s="161"/>
+      <c r="AW12" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="AX12" s="169"/>
-      <c r="AY12" s="162" t="s">
+      <c r="AX12" s="167"/>
+      <c r="AY12" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="AZ12" s="163"/>
-      <c r="BA12" s="153" t="s">
+      <c r="AZ12" s="161"/>
+      <c r="BA12" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="BB12" s="154"/>
-      <c r="BC12" s="154"/>
-      <c r="BD12" s="154"/>
-      <c r="BE12" s="155"/>
-      <c r="BF12" s="162" t="s">
+      <c r="BB12" s="152"/>
+      <c r="BC12" s="152"/>
+      <c r="BD12" s="152"/>
+      <c r="BE12" s="153"/>
+      <c r="BF12" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="BG12" s="163"/>
+      <c r="BG12" s="161"/>
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="82"/>
@@ -4015,49 +4021,49 @@
       <c r="N13" s="84"/>
       <c r="O13" s="84"/>
       <c r="P13" s="109"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="119"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="170"/>
-      <c r="AM13" s="171"/>
-      <c r="AN13" s="164"/>
-      <c r="AO13" s="165"/>
-      <c r="AP13" s="156"/>
-      <c r="AQ13" s="157"/>
-      <c r="AR13" s="157"/>
-      <c r="AS13" s="157"/>
-      <c r="AT13" s="158"/>
-      <c r="AU13" s="164"/>
-      <c r="AV13" s="165"/>
-      <c r="AW13" s="170"/>
-      <c r="AX13" s="171"/>
-      <c r="AY13" s="164"/>
-      <c r="AZ13" s="165"/>
-      <c r="BA13" s="156"/>
-      <c r="BB13" s="157"/>
-      <c r="BC13" s="157"/>
-      <c r="BD13" s="157"/>
-      <c r="BE13" s="158"/>
-      <c r="BF13" s="164"/>
-      <c r="BG13" s="165"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="115"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="169"/>
+      <c r="AN13" s="162"/>
+      <c r="AO13" s="163"/>
+      <c r="AP13" s="154"/>
+      <c r="AQ13" s="155"/>
+      <c r="AR13" s="155"/>
+      <c r="AS13" s="155"/>
+      <c r="AT13" s="156"/>
+      <c r="AU13" s="162"/>
+      <c r="AV13" s="163"/>
+      <c r="AW13" s="168"/>
+      <c r="AX13" s="169"/>
+      <c r="AY13" s="162"/>
+      <c r="AZ13" s="163"/>
+      <c r="BA13" s="154"/>
+      <c r="BB13" s="155"/>
+      <c r="BC13" s="155"/>
+      <c r="BD13" s="155"/>
+      <c r="BE13" s="156"/>
+      <c r="BF13" s="162"/>
+      <c r="BG13" s="163"/>
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="82"/>
@@ -4076,49 +4082,49 @@
       <c r="N14" s="84"/>
       <c r="O14" s="84"/>
       <c r="P14" s="109"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="172"/>
-      <c r="AM14" s="173"/>
-      <c r="AN14" s="166"/>
-      <c r="AO14" s="167"/>
-      <c r="AP14" s="159"/>
-      <c r="AQ14" s="160"/>
-      <c r="AR14" s="160"/>
-      <c r="AS14" s="160"/>
-      <c r="AT14" s="161"/>
-      <c r="AU14" s="166"/>
-      <c r="AV14" s="167"/>
-      <c r="AW14" s="172"/>
-      <c r="AX14" s="173"/>
-      <c r="AY14" s="166"/>
-      <c r="AZ14" s="167"/>
-      <c r="BA14" s="159"/>
-      <c r="BB14" s="160"/>
-      <c r="BC14" s="160"/>
-      <c r="BD14" s="160"/>
-      <c r="BE14" s="161"/>
-      <c r="BF14" s="166"/>
-      <c r="BG14" s="167"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="170"/>
+      <c r="AM14" s="171"/>
+      <c r="AN14" s="164"/>
+      <c r="AO14" s="165"/>
+      <c r="AP14" s="157"/>
+      <c r="AQ14" s="158"/>
+      <c r="AR14" s="158"/>
+      <c r="AS14" s="158"/>
+      <c r="AT14" s="159"/>
+      <c r="AU14" s="164"/>
+      <c r="AV14" s="165"/>
+      <c r="AW14" s="170"/>
+      <c r="AX14" s="171"/>
+      <c r="AY14" s="164"/>
+      <c r="AZ14" s="165"/>
+      <c r="BA14" s="157"/>
+      <c r="BB14" s="158"/>
+      <c r="BC14" s="158"/>
+      <c r="BD14" s="158"/>
+      <c r="BE14" s="159"/>
+      <c r="BF14" s="164"/>
+      <c r="BG14" s="165"/>
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="82"/>
@@ -4137,27 +4143,27 @@
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="109"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="119"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="118"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="115"/>
       <c r="AL15" s="66"/>
       <c r="AM15" s="67"/>
       <c r="AN15" s="82"/>
@@ -4202,27 +4208,27 @@
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="109"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="119"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="118"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="115"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="115"/>
       <c r="AL16" s="82"/>
       <c r="AM16" s="67"/>
       <c r="AN16" s="82"/>
@@ -4267,27 +4273,27 @@
       <c r="N17" s="84"/>
       <c r="O17" s="84"/>
       <c r="P17" s="109"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="119"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="118"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="115"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="114"/>
+      <c r="AE17" s="115"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="115"/>
       <c r="AL17" s="82"/>
       <c r="AM17" s="67"/>
       <c r="AN17" s="82"/>
@@ -4332,27 +4338,27 @@
       <c r="N18" s="84"/>
       <c r="O18" s="84"/>
       <c r="P18" s="109"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="119"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="119"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="118"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="115"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="115"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="115"/>
       <c r="AL18" s="66"/>
       <c r="AM18" s="67"/>
       <c r="AN18" s="82"/>
@@ -4397,27 +4403,27 @@
       <c r="N19" s="84"/>
       <c r="O19" s="84"/>
       <c r="P19" s="109"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="119"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="118"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="115"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="115"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="115"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="114"/>
+      <c r="AK19" s="115"/>
       <c r="AL19" s="66"/>
       <c r="AM19" s="67"/>
       <c r="AN19" s="66"/>
@@ -4462,27 +4468,27 @@
       <c r="N20" s="84"/>
       <c r="O20" s="84"/>
       <c r="P20" s="109"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="119"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="118"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="115"/>
       <c r="AL20" s="66"/>
       <c r="AM20" s="67"/>
       <c r="AN20" s="66"/>
@@ -4527,27 +4533,27 @@
       <c r="N21" s="84"/>
       <c r="O21" s="84"/>
       <c r="P21" s="109"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="119"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="119"/>
-      <c r="AK21" s="118"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="115"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="115"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="115"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="115"/>
       <c r="AL21" s="82"/>
       <c r="AM21" s="67"/>
       <c r="AN21" s="82"/>
@@ -4592,27 +4598,27 @@
       <c r="N22" s="84"/>
       <c r="O22" s="84"/>
       <c r="P22" s="109"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="119"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="119"/>
-      <c r="AK22" s="118"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="115"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="115"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="115"/>
       <c r="AL22" s="66"/>
       <c r="AM22" s="67"/>
       <c r="AN22" s="66"/>
@@ -4657,27 +4663,27 @@
       <c r="N23" s="84"/>
       <c r="O23" s="84"/>
       <c r="P23" s="109"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="119"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="119"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="119"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="119"/>
-      <c r="AK23" s="118"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="115"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="115"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="115"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="115"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="115"/>
       <c r="AL23" s="82"/>
       <c r="AM23" s="67"/>
       <c r="AN23" s="82"/>
@@ -4722,27 +4728,27 @@
       <c r="N24" s="84"/>
       <c r="O24" s="84"/>
       <c r="P24" s="109"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="119"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="119"/>
-      <c r="AK24" s="118"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="115"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="115"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="115"/>
       <c r="AL24" s="66"/>
       <c r="AM24" s="67"/>
       <c r="AN24" s="66"/>
@@ -4787,27 +4793,27 @@
       <c r="N25" s="84"/>
       <c r="O25" s="84"/>
       <c r="P25" s="109"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="119"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="119"/>
-      <c r="AK25" s="118"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="115"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="114"/>
+      <c r="AB25" s="115"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="114"/>
+      <c r="AE25" s="115"/>
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="115"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="114"/>
+      <c r="AK25" s="115"/>
       <c r="AL25" s="82"/>
       <c r="AM25" s="67"/>
       <c r="AN25" s="82"/>
@@ -4852,27 +4858,27 @@
       <c r="N26" s="84"/>
       <c r="O26" s="84"/>
       <c r="P26" s="109"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="119"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="119"/>
-      <c r="AK26" s="118"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="114"/>
+      <c r="AE26" s="115"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="115"/>
+      <c r="AI26" s="113"/>
+      <c r="AJ26" s="114"/>
+      <c r="AK26" s="115"/>
       <c r="AL26" s="82"/>
       <c r="AM26" s="67"/>
       <c r="AN26" s="82"/>
@@ -4917,27 +4923,27 @@
       <c r="N27" s="84"/>
       <c r="O27" s="84"/>
       <c r="P27" s="109"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="118"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="119"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="119"/>
-      <c r="AK27" s="118"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="115"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="114"/>
+      <c r="Y27" s="115"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="114"/>
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="114"/>
+      <c r="AE27" s="115"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="114"/>
+      <c r="AH27" s="115"/>
+      <c r="AI27" s="113"/>
+      <c r="AJ27" s="114"/>
+      <c r="AK27" s="115"/>
       <c r="AL27" s="82"/>
       <c r="AM27" s="67"/>
       <c r="AN27" s="82"/>
@@ -4982,27 +4988,27 @@
       <c r="N28" s="84"/>
       <c r="O28" s="84"/>
       <c r="P28" s="109"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="118"/>
-      <c r="AF28" s="117"/>
-      <c r="AG28" s="119"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="119"/>
-      <c r="AK28" s="118"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="115"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="115"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="114"/>
+      <c r="AB28" s="115"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="114"/>
+      <c r="AE28" s="115"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="114"/>
+      <c r="AH28" s="115"/>
+      <c r="AI28" s="113"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="115"/>
       <c r="AL28" s="82"/>
       <c r="AM28" s="67"/>
       <c r="AN28" s="82"/>
@@ -5045,12 +5051,12 @@
       <c r="J29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="114"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="117"/>
       <c r="Q29" s="10" t="s">
         <v>56</v>
       </c>
@@ -5072,12 +5078,12 @@
       <c r="AE29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="114"/>
+      <c r="AF29" s="116"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="116"/>
+      <c r="AJ29" s="116"/>
+      <c r="AK29" s="117"/>
       <c r="AL29" s="82"/>
       <c r="AM29" s="67"/>
       <c r="AN29" s="82"/>
@@ -7417,30 +7423,30 @@
       <c r="F64" s="77"/>
       <c r="G64" s="77"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="174"/>
-      <c r="L64" s="174"/>
-      <c r="M64" s="174"/>
-      <c r="N64" s="174"/>
-      <c r="O64" s="174"/>
-      <c r="P64" s="174"/>
-      <c r="Q64" s="174"/>
-      <c r="R64" s="175"/>
-      <c r="S64" s="145" t="s">
+      <c r="I64" s="176"/>
+      <c r="J64" s="176"/>
+      <c r="K64" s="176"/>
+      <c r="L64" s="176"/>
+      <c r="M64" s="176"/>
+      <c r="N64" s="176"/>
+      <c r="O64" s="176"/>
+      <c r="P64" s="176"/>
+      <c r="Q64" s="176"/>
+      <c r="R64" s="177"/>
+      <c r="S64" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="T64" s="146"/>
-      <c r="U64" s="146"/>
-      <c r="V64" s="146"/>
-      <c r="W64" s="176"/>
-      <c r="X64" s="176"/>
-      <c r="Y64" s="176"/>
-      <c r="Z64" s="176"/>
-      <c r="AA64" s="176"/>
-      <c r="AB64" s="176"/>
-      <c r="AC64" s="176"/>
-      <c r="AD64" s="177"/>
+      <c r="T64" s="183"/>
+      <c r="U64" s="183"/>
+      <c r="V64" s="183"/>
+      <c r="W64" s="178"/>
+      <c r="X64" s="178"/>
+      <c r="Y64" s="178"/>
+      <c r="Z64" s="178"/>
+      <c r="AA64" s="178"/>
+      <c r="AB64" s="178"/>
+      <c r="AC64" s="178"/>
+      <c r="AD64" s="179"/>
       <c r="AE64" s="76" t="s">
         <v>72</v>
       </c>
@@ -7484,30 +7490,30 @@
       <c r="F65" s="77"/>
       <c r="G65" s="77"/>
       <c r="H65" s="11"/>
-      <c r="I65" s="174"/>
-      <c r="J65" s="174"/>
-      <c r="K65" s="174"/>
-      <c r="L65" s="174"/>
-      <c r="M65" s="174"/>
-      <c r="N65" s="174"/>
-      <c r="O65" s="174"/>
-      <c r="P65" s="174"/>
-      <c r="Q65" s="174"/>
-      <c r="R65" s="175"/>
-      <c r="S65" s="145" t="s">
+      <c r="I65" s="176"/>
+      <c r="J65" s="176"/>
+      <c r="K65" s="176"/>
+      <c r="L65" s="176"/>
+      <c r="M65" s="176"/>
+      <c r="N65" s="176"/>
+      <c r="O65" s="176"/>
+      <c r="P65" s="176"/>
+      <c r="Q65" s="176"/>
+      <c r="R65" s="177"/>
+      <c r="S65" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="T65" s="146"/>
-      <c r="U65" s="146"/>
-      <c r="V65" s="146"/>
-      <c r="W65" s="176"/>
-      <c r="X65" s="176"/>
-      <c r="Y65" s="176"/>
-      <c r="Z65" s="176"/>
-      <c r="AA65" s="176"/>
-      <c r="AB65" s="176"/>
-      <c r="AC65" s="176"/>
-      <c r="AD65" s="177"/>
+      <c r="T65" s="183"/>
+      <c r="U65" s="183"/>
+      <c r="V65" s="183"/>
+      <c r="W65" s="178"/>
+      <c r="X65" s="178"/>
+      <c r="Y65" s="178"/>
+      <c r="Z65" s="178"/>
+      <c r="AA65" s="178"/>
+      <c r="AB65" s="178"/>
+      <c r="AC65" s="178"/>
+      <c r="AD65" s="179"/>
       <c r="AE65" s="76" t="s">
         <v>72</v>
       </c>
@@ -7553,30 +7559,30 @@
       <c r="F66" s="77"/>
       <c r="G66" s="78"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="174"/>
-      <c r="J66" s="174"/>
-      <c r="K66" s="174"/>
-      <c r="L66" s="174"/>
-      <c r="M66" s="174"/>
-      <c r="N66" s="174"/>
-      <c r="O66" s="174"/>
-      <c r="P66" s="174"/>
-      <c r="Q66" s="174"/>
-      <c r="R66" s="175"/>
-      <c r="S66" s="145" t="s">
+      <c r="I66" s="176"/>
+      <c r="J66" s="176"/>
+      <c r="K66" s="176"/>
+      <c r="L66" s="176"/>
+      <c r="M66" s="176"/>
+      <c r="N66" s="176"/>
+      <c r="O66" s="176"/>
+      <c r="P66" s="176"/>
+      <c r="Q66" s="176"/>
+      <c r="R66" s="177"/>
+      <c r="S66" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="T66" s="146"/>
-      <c r="U66" s="146"/>
-      <c r="V66" s="146"/>
-      <c r="W66" s="176"/>
-      <c r="X66" s="176"/>
-      <c r="Y66" s="176"/>
-      <c r="Z66" s="176"/>
-      <c r="AA66" s="176"/>
-      <c r="AB66" s="176"/>
-      <c r="AC66" s="176"/>
-      <c r="AD66" s="177"/>
+      <c r="T66" s="183"/>
+      <c r="U66" s="183"/>
+      <c r="V66" s="183"/>
+      <c r="W66" s="178"/>
+      <c r="X66" s="178"/>
+      <c r="Y66" s="178"/>
+      <c r="Z66" s="178"/>
+      <c r="AA66" s="178"/>
+      <c r="AB66" s="178"/>
+      <c r="AC66" s="178"/>
+      <c r="AD66" s="179"/>
       <c r="AE66" s="76" t="s">
         <v>72</v>
       </c>
@@ -7628,30 +7634,30 @@
       <c r="F67" s="77"/>
       <c r="G67" s="78"/>
       <c r="H67" s="11"/>
-      <c r="I67" s="174"/>
-      <c r="J67" s="174"/>
-      <c r="K67" s="174"/>
-      <c r="L67" s="174"/>
-      <c r="M67" s="174"/>
-      <c r="N67" s="174"/>
-      <c r="O67" s="174"/>
-      <c r="P67" s="174"/>
-      <c r="Q67" s="174"/>
-      <c r="R67" s="175"/>
-      <c r="S67" s="145" t="s">
+      <c r="I67" s="176"/>
+      <c r="J67" s="176"/>
+      <c r="K67" s="176"/>
+      <c r="L67" s="176"/>
+      <c r="M67" s="176"/>
+      <c r="N67" s="176"/>
+      <c r="O67" s="176"/>
+      <c r="P67" s="176"/>
+      <c r="Q67" s="176"/>
+      <c r="R67" s="177"/>
+      <c r="S67" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="T67" s="146"/>
-      <c r="U67" s="146"/>
-      <c r="V67" s="146"/>
-      <c r="W67" s="178"/>
-      <c r="X67" s="178"/>
-      <c r="Y67" s="178"/>
-      <c r="Z67" s="178"/>
-      <c r="AA67" s="178"/>
-      <c r="AB67" s="178"/>
-      <c r="AC67" s="178"/>
-      <c r="AD67" s="179"/>
+      <c r="T67" s="183"/>
+      <c r="U67" s="183"/>
+      <c r="V67" s="183"/>
+      <c r="W67" s="180"/>
+      <c r="X67" s="180"/>
+      <c r="Y67" s="180"/>
+      <c r="Z67" s="180"/>
+      <c r="AA67" s="180"/>
+      <c r="AB67" s="180"/>
+      <c r="AC67" s="180"/>
+      <c r="AD67" s="181"/>
       <c r="AE67" s="76" t="s">
         <v>72</v>
       </c>
@@ -7697,30 +7703,30 @@
       <c r="F68" s="77"/>
       <c r="G68" s="78"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="174"/>
-      <c r="K68" s="174"/>
-      <c r="L68" s="174"/>
-      <c r="M68" s="174"/>
-      <c r="N68" s="174"/>
-      <c r="O68" s="174"/>
-      <c r="P68" s="174"/>
-      <c r="Q68" s="174"/>
-      <c r="R68" s="175"/>
-      <c r="S68" s="145" t="s">
+      <c r="I68" s="176"/>
+      <c r="J68" s="176"/>
+      <c r="K68" s="176"/>
+      <c r="L68" s="176"/>
+      <c r="M68" s="176"/>
+      <c r="N68" s="176"/>
+      <c r="O68" s="176"/>
+      <c r="P68" s="176"/>
+      <c r="Q68" s="176"/>
+      <c r="R68" s="177"/>
+      <c r="S68" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="T68" s="146"/>
-      <c r="U68" s="146"/>
-      <c r="V68" s="146"/>
-      <c r="W68" s="176"/>
-      <c r="X68" s="176"/>
-      <c r="Y68" s="176"/>
-      <c r="Z68" s="176"/>
-      <c r="AA68" s="176"/>
-      <c r="AB68" s="176"/>
-      <c r="AC68" s="176"/>
-      <c r="AD68" s="177"/>
+      <c r="T68" s="183"/>
+      <c r="U68" s="183"/>
+      <c r="V68" s="183"/>
+      <c r="W68" s="178"/>
+      <c r="X68" s="178"/>
+      <c r="Y68" s="178"/>
+      <c r="Z68" s="178"/>
+      <c r="AA68" s="178"/>
+      <c r="AB68" s="178"/>
+      <c r="AC68" s="178"/>
+      <c r="AD68" s="179"/>
       <c r="AE68" s="76" t="s">
         <v>72</v>
       </c>
@@ -7882,6 +7888,8 @@
     <mergeCell ref="AF22:AH22"/>
     <mergeCell ref="W14:Y14"/>
     <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="W12:Y12"/>
     <mergeCell ref="S64:V64"/>
     <mergeCell ref="AY10:BE10"/>
     <mergeCell ref="AY11:BE11"/>
@@ -8010,7 +8018,6 @@
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
     <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI13:AK13"/>
     <mergeCell ref="C10:P10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D9:T9"/>
@@ -8043,7 +8050,6 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="W12:Y12"/>
     <mergeCell ref="Z12:AB12"/>
     <mergeCell ref="AC12:AE12"/>
     <mergeCell ref="AI11:AK11"/>
@@ -8074,12 +8080,6 @@
     <mergeCell ref="AI24:AK24"/>
     <mergeCell ref="W21:Y21"/>
     <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AK14"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AK19"/>
     <mergeCell ref="W20:Y20"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
@@ -8106,32 +8106,6 @@
     <mergeCell ref="AF25:AH25"/>
     <mergeCell ref="AI25:AK25"/>
     <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AF26:AH26"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AF13:AH13"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="C23:P23"/>
@@ -8156,14 +8130,14 @@
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="S24:T24"/>
     <mergeCell ref="S25:T25"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="U26:V26"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A32:I33"/>
     <mergeCell ref="J32:P33"/>
@@ -8174,6 +8148,28 @@
     <mergeCell ref="AF29:AK29"/>
     <mergeCell ref="AE30:AK30"/>
     <mergeCell ref="AE31:AK31"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AF26:AH26"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AK14"/>
     <mergeCell ref="U34:AK34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:P35"/>
@@ -8196,6 +8192,16 @@
     <mergeCell ref="AC15:AE15"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AK19"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:P36"/>
     <mergeCell ref="Q36:R36"/>
@@ -8870,8 +8876,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>19</xdr:col>
-                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>160020</xdr:rowOff>
                   </to>
@@ -8892,8 +8898,8 @@
                     <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>20</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8915,7 +8921,7 @@
                   </from>
                   <to>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
@@ -8936,8 +8942,8 @@
                     <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>20</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
@@ -8958,8 +8964,8 @@
                     <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>20</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
@@ -8980,8 +8986,8 @@
                     <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>20</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
@@ -9002,8 +9008,8 @@
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>26</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -9024,8 +9030,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>26</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:col>27</xdr:col>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9046,8 +9052,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>26</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9068,8 +9074,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>26</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9090,8 +9096,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>26</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:col>27</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9112,8 +9118,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>29</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:col>30</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9134,8 +9140,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>32</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:col>33</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9156,8 +9162,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>32</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9178,8 +9184,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>32</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9200,8 +9206,8 @@
                     <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>32</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
@@ -9222,8 +9228,8 @@
                     <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>32</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:col>34</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
@@ -9245,7 +9251,7 @@
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9267,7 +9273,7 @@
                   </from>
                   <to>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>83820</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9289,7 +9295,7 @@
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9310,8 +9316,8 @@
                     <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>20</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
@@ -9332,8 +9338,8 @@
                     <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>20</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
@@ -9355,7 +9361,7 @@
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>

--- a/app/templates/protocol_template.xlsx
+++ b/app/templates/protocol_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radziulek\Desktop\Sędziowanie\PROTOKOŁY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA9E321-0541-4443-84ED-B47F3C14A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE3C088-AEBA-4AF7-ACBF-66EF927CDDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -740,15 +740,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,6 +848,81 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,6 +932,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,82 +1001,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,19 +1019,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,6 +1070,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1070,12 +1094,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1103,30 +1121,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1343,13 +1343,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1376,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,19 +1392,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,8 +1770,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:BM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="114" zoomScaleNormal="280" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BJ66" sqref="BJ66"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="114" zoomScaleNormal="280" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BK62" sqref="BK62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1783,50 +1795,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="114"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="233" t="s">
+      <c r="A1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="233"/>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="233"/>
-      <c r="AB1" s="233"/>
-      <c r="AC1" s="233"/>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="233"/>
-      <c r="AH1" s="233"/>
-      <c r="AI1" s="233"/>
-      <c r="AJ1" s="233"/>
-      <c r="AK1" s="233"/>
-      <c r="AL1" s="233"/>
-      <c r="AM1" s="233"/>
-      <c r="AN1" s="233"/>
-      <c r="AO1" s="233"/>
-      <c r="AP1" s="234"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="235"/>
+      <c r="AB1" s="235"/>
+      <c r="AC1" s="235"/>
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="235"/>
+      <c r="AG1" s="235"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
+      <c r="AK1" s="235"/>
+      <c r="AL1" s="235"/>
+      <c r="AM1" s="235"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="236"/>
       <c r="AQ1" s="217" t="s">
         <v>59</v>
       </c>
@@ -1848,48 +1860,48 @@
       <c r="BG1" s="217"/>
     </row>
     <row r="2" spans="1:61" ht="13.2" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="235"/>
-      <c r="AC2" s="235"/>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="235"/>
-      <c r="AG2" s="235"/>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="235"/>
-      <c r="AJ2" s="235"/>
-      <c r="AK2" s="235"/>
-      <c r="AL2" s="235"/>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="236"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="237"/>
+      <c r="AD2" s="237"/>
+      <c r="AE2" s="237"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="237"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="237"/>
+      <c r="AJ2" s="237"/>
+      <c r="AK2" s="237"/>
+      <c r="AL2" s="237"/>
+      <c r="AM2" s="237"/>
+      <c r="AN2" s="237"/>
+      <c r="AO2" s="237"/>
+      <c r="AP2" s="238"/>
       <c r="AQ2" s="218"/>
       <c r="AR2" s="218"/>
       <c r="AS2" s="218"/>
@@ -1928,34 +1940,34 @@
       <c r="O3" s="220"/>
       <c r="P3" s="220"/>
       <c r="Q3" s="221"/>
-      <c r="R3" s="125" t="s">
+      <c r="R3" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="126"/>
+      <c r="S3" s="134"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="133" t="s">
+      <c r="U3" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="135"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="141"/>
       <c r="Z3" s="18"/>
-      <c r="AA3" s="133" t="s">
+      <c r="AA3" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="135"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="141"/>
       <c r="AF3" s="18"/>
-      <c r="AG3" s="104" t="s">
+      <c r="AG3" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="106"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="111"/>
       <c r="AL3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1984,47 +1996,47 @@
     <row r="4" spans="1:61" ht="13.2" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="128"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="136"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="133" t="s">
+      <c r="U4" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="135"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="141"/>
       <c r="Z4" s="18"/>
-      <c r="AA4" s="133" t="s">
+      <c r="AA4" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="135"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="141"/>
       <c r="AF4" s="18"/>
-      <c r="AG4" s="104" t="s">
+      <c r="AG4" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="106"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="111"/>
       <c r="AL4" s="211"/>
       <c r="AM4" s="212"/>
       <c r="AN4" s="212"/>
@@ -2051,47 +2063,47 @@
     <row r="5" spans="1:61" ht="13.2" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="128"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="136"/>
       <c r="T5" s="17"/>
-      <c r="U5" s="133" t="s">
+      <c r="U5" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="135"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="141"/>
       <c r="Z5" s="18"/>
-      <c r="AA5" s="133" t="s">
+      <c r="AA5" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="135"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="141"/>
       <c r="AF5" s="18"/>
-      <c r="AG5" s="104" t="s">
+      <c r="AG5" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="106"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="111"/>
       <c r="AL5" s="214"/>
       <c r="AM5" s="215"/>
       <c r="AN5" s="215"/>
@@ -2135,154 +2147,154 @@
       <c r="O6" s="220"/>
       <c r="P6" s="220"/>
       <c r="Q6" s="221"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="128"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="136"/>
       <c r="T6" s="17"/>
-      <c r="U6" s="136" t="s">
+      <c r="U6" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="V6" s="137"/>
-      <c r="W6" s="137"/>
-      <c r="X6" s="137"/>
-      <c r="Y6" s="138"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="144"/>
       <c r="Z6" s="18"/>
-      <c r="AA6" s="133" t="s">
+      <c r="AA6" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="135"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="141"/>
       <c r="AF6" s="18"/>
-      <c r="AG6" s="104" t="s">
+      <c r="AG6" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="71"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="71"/>
-      <c r="BG6" s="74"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="110"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="101"/>
+      <c r="AN6" s="101"/>
+      <c r="AO6" s="101"/>
+      <c r="AP6" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="101"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="101"/>
+      <c r="AV6" s="101"/>
+      <c r="AW6" s="101"/>
+      <c r="AX6" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY6" s="101"/>
+      <c r="AZ6" s="101"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="100"/>
+      <c r="BC6" s="101"/>
+      <c r="BD6" s="101"/>
+      <c r="BE6" s="101"/>
+      <c r="BF6" s="101"/>
+      <c r="BG6" s="104"/>
     </row>
     <row r="7" spans="1:61" ht="13.2" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="128"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="136"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="133" t="s">
+      <c r="U7" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="135"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="141"/>
       <c r="Z7" s="19"/>
-      <c r="AA7" s="133" t="s">
+      <c r="AA7" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" s="135"/>
+      <c r="AB7" s="141"/>
       <c r="AC7" s="19"/>
-      <c r="AD7" s="133" t="s">
+      <c r="AD7" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AE7" s="135"/>
+      <c r="AE7" s="141"/>
       <c r="AF7" s="18"/>
-      <c r="AG7" s="104" t="s">
+      <c r="AG7" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="106"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="73"/>
-      <c r="BG7" s="75"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="110"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="103"/>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="103"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="103"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="103"/>
+      <c r="AY7" s="103"/>
+      <c r="AZ7" s="103"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="102"/>
+      <c r="BC7" s="103"/>
+      <c r="BD7" s="103"/>
+      <c r="BE7" s="103"/>
+      <c r="BF7" s="103"/>
+      <c r="BG7" s="105"/>
     </row>
     <row r="8" spans="1:61" ht="13.2" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="130"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="138"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="141"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="147"/>
       <c r="Z8" s="207" t="s">
         <v>76</v>
       </c>
@@ -2291,201 +2303,201 @@
       <c r="AC8" s="209"/>
       <c r="AD8" s="209"/>
       <c r="AE8" s="210"/>
-      <c r="AF8" s="238" t="s">
+      <c r="AF8" s="239" t="s">
         <v>77</v>
       </c>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="239"/>
-      <c r="AI8" s="239"/>
-      <c r="AJ8" s="239"/>
-      <c r="AK8" s="240"/>
-      <c r="AL8" s="76" t="s">
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="240"/>
+      <c r="AI8" s="240"/>
+      <c r="AJ8" s="240"/>
+      <c r="AK8" s="241"/>
+      <c r="AL8" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63" t="s">
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="76" t="s">
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="107"/>
+      <c r="BB8" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="77"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="107"/>
     </row>
     <row r="9" spans="1:61">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="146">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="148">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="142" t="s">
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="143"/>
-      <c r="AH9" s="143"/>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="143"/>
-      <c r="AK9" s="144"/>
-      <c r="AL9" s="43" t="s">
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="117"/>
+      <c r="AG9" s="117"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="118"/>
+      <c r="AL9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="81"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="108"/>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="142" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="142" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="144"/>
-      <c r="S10" s="142" t="s">
+      <c r="R10" s="118"/>
+      <c r="S10" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="144"/>
-      <c r="U10" s="142" t="s">
+      <c r="T10" s="118"/>
+      <c r="U10" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="144"/>
-      <c r="W10" s="142" t="s">
+      <c r="V10" s="118"/>
+      <c r="W10" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="142" t="s">
+      <c r="X10" s="117"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="142" t="s">
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="142" t="s">
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AG10" s="143"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="142" t="s">
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AJ10" s="143"/>
-      <c r="AK10" s="144"/>
-      <c r="AL10" s="131"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="67" t="s">
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="131"/>
-      <c r="AV10" s="132"/>
-      <c r="AW10" s="131"/>
-      <c r="AX10" s="132"/>
-      <c r="AY10" s="67" t="s">
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="98"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="115"/>
+      <c r="AY10" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="68"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="131"/>
-      <c r="BG10" s="132"/>
+      <c r="AZ10" s="98"/>
+      <c r="BA10" s="98"/>
+      <c r="BB10" s="98"/>
+      <c r="BC10" s="98"/>
+      <c r="BD10" s="98"/>
+      <c r="BE10" s="99"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="115"/>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" s="113"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="150"/>
       <c r="D11" s="151"/>
       <c r="E11" s="151"/>
@@ -2500,58 +2512,58 @@
       <c r="N11" s="151"/>
       <c r="O11" s="151"/>
       <c r="P11" s="152"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="145"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="145"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="145"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="131"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="67" t="s">
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="114"/>
+      <c r="AM11" s="115"/>
+      <c r="AN11" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="131"/>
-      <c r="AV11" s="132"/>
-      <c r="AW11" s="131"/>
-      <c r="AX11" s="132"/>
-      <c r="AY11" s="67" t="s">
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="115"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="115"/>
+      <c r="AY11" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="AZ11" s="68"/>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="69"/>
-      <c r="BF11" s="131"/>
-      <c r="BG11" s="132"/>
+      <c r="AZ11" s="98"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="98"/>
+      <c r="BC11" s="98"/>
+      <c r="BD11" s="98"/>
+      <c r="BE11" s="99"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="115"/>
       <c r="BI11" s="11"/>
     </row>
     <row r="12" spans="1:61">
-      <c r="A12" s="43"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="150"/>
       <c r="D12" s="151"/>
       <c r="E12" s="151"/>
@@ -2566,69 +2578,69 @@
       <c r="N12" s="151"/>
       <c r="O12" s="151"/>
       <c r="P12" s="152"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="97" t="s">
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="91" t="s">
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="82" t="s">
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="91" t="s">
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="92"/>
-      <c r="AW12" s="97" t="s">
+      <c r="AV12" s="67"/>
+      <c r="AW12" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AX12" s="98"/>
-      <c r="AY12" s="91" t="s">
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AZ12" s="92"/>
-      <c r="BA12" s="82" t="s">
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="91" t="s">
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="BG12" s="92"/>
+      <c r="BG12" s="67"/>
     </row>
     <row r="13" spans="1:61">
-      <c r="A13" s="43"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="150"/>
       <c r="D13" s="151"/>
       <c r="E13" s="151"/>
@@ -2643,53 +2655,53 @@
       <c r="N13" s="151"/>
       <c r="O13" s="151"/>
       <c r="P13" s="152"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="100"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="86"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="100"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="94"/>
-      <c r="BA13" s="85"/>
-      <c r="BB13" s="86"/>
-      <c r="BC13" s="86"/>
-      <c r="BD13" s="86"/>
-      <c r="BE13" s="87"/>
-      <c r="BF13" s="93"/>
-      <c r="BG13" s="94"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="75"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="62"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="69"/>
     </row>
     <row r="14" spans="1:61">
-      <c r="A14" s="43"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="150"/>
       <c r="D14" s="151"/>
       <c r="E14" s="151"/>
@@ -2704,53 +2716,53 @@
       <c r="N14" s="151"/>
       <c r="O14" s="151"/>
       <c r="P14" s="152"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="101"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="90"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="102"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="96"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="89"/>
-      <c r="BC14" s="89"/>
-      <c r="BD14" s="89"/>
-      <c r="BE14" s="90"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="96"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="65"/>
+      <c r="BF14" s="70"/>
+      <c r="BG14" s="71"/>
     </row>
     <row r="15" spans="1:61">
-      <c r="A15" s="43"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="150"/>
       <c r="D15" s="151"/>
       <c r="E15" s="151"/>
@@ -2765,57 +2777,57 @@
       <c r="N15" s="151"/>
       <c r="O15" s="151"/>
       <c r="P15" s="152"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="78"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="88"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="81"/>
       <c r="AO15" s="79"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="110"/>
+      <c r="AP15" s="129"/>
+      <c r="AQ15" s="90"/>
       <c r="AR15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS15" s="124"/>
-      <c r="AT15" s="112"/>
-      <c r="AU15" s="80"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="92"/>
+      <c r="AU15" s="78"/>
       <c r="AV15" s="79"/>
-      <c r="AW15" s="43"/>
-      <c r="AX15" s="103"/>
-      <c r="AY15" s="78"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="80"/>
+      <c r="AY15" s="81"/>
       <c r="AZ15" s="79"/>
-      <c r="BA15" s="123"/>
-      <c r="BB15" s="110"/>
+      <c r="BA15" s="129"/>
+      <c r="BB15" s="90"/>
       <c r="BC15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD15" s="124"/>
-      <c r="BE15" s="112"/>
-      <c r="BF15" s="80"/>
+      <c r="BD15" s="130"/>
+      <c r="BE15" s="92"/>
+      <c r="BF15" s="78"/>
       <c r="BG15" s="79"/>
     </row>
     <row r="16" spans="1:61">
-      <c r="A16" s="43"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="150"/>
       <c r="D16" s="151"/>
       <c r="E16" s="151"/>
@@ -2830,57 +2842,57 @@
       <c r="N16" s="151"/>
       <c r="O16" s="151"/>
       <c r="P16" s="152"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="78"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="81"/>
       <c r="AO16" s="79"/>
-      <c r="AP16" s="123"/>
-      <c r="AQ16" s="110"/>
+      <c r="AP16" s="129"/>
+      <c r="AQ16" s="90"/>
       <c r="AR16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS16" s="124"/>
-      <c r="AT16" s="112"/>
-      <c r="AU16" s="80"/>
+      <c r="AS16" s="130"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="78"/>
       <c r="AV16" s="79"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="103"/>
-      <c r="AY16" s="80"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="78"/>
       <c r="AZ16" s="79"/>
-      <c r="BA16" s="123"/>
-      <c r="BB16" s="110"/>
+      <c r="BA16" s="129"/>
+      <c r="BB16" s="90"/>
       <c r="BC16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD16" s="124"/>
-      <c r="BE16" s="112"/>
-      <c r="BF16" s="78"/>
+      <c r="BD16" s="130"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="81"/>
       <c r="BG16" s="79"/>
     </row>
     <row r="17" spans="1:59">
-      <c r="A17" s="43"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="150"/>
       <c r="D17" s="151"/>
       <c r="E17" s="151"/>
@@ -2895,57 +2907,57 @@
       <c r="N17" s="151"/>
       <c r="O17" s="151"/>
       <c r="P17" s="152"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="43"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="78"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="80"/>
+      <c r="AN17" s="81"/>
       <c r="AO17" s="79"/>
-      <c r="AP17" s="123"/>
-      <c r="AQ17" s="110"/>
+      <c r="AP17" s="129"/>
+      <c r="AQ17" s="90"/>
       <c r="AR17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="112"/>
-      <c r="AU17" s="80"/>
+      <c r="AS17" s="130"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="78"/>
       <c r="AV17" s="79"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="80"/>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="80"/>
+      <c r="AY17" s="78"/>
       <c r="AZ17" s="79"/>
-      <c r="BA17" s="109"/>
-      <c r="BB17" s="110"/>
+      <c r="BA17" s="89"/>
+      <c r="BB17" s="90"/>
       <c r="BC17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD17" s="111"/>
-      <c r="BE17" s="112"/>
-      <c r="BF17" s="80"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="78"/>
       <c r="BG17" s="79"/>
     </row>
     <row r="18" spans="1:59">
-      <c r="A18" s="43"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="150"/>
       <c r="D18" s="151"/>
       <c r="E18" s="151"/>
@@ -2960,57 +2972,57 @@
       <c r="N18" s="151"/>
       <c r="O18" s="151"/>
       <c r="P18" s="152"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="103"/>
-      <c r="AN18" s="78"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="81"/>
       <c r="AO18" s="79"/>
-      <c r="AP18" s="123"/>
-      <c r="AQ18" s="110"/>
+      <c r="AP18" s="129"/>
+      <c r="AQ18" s="90"/>
       <c r="AR18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="112"/>
-      <c r="AU18" s="80"/>
+      <c r="AS18" s="130"/>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="78"/>
       <c r="AV18" s="79"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="103"/>
-      <c r="AY18" s="80"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="80"/>
+      <c r="AY18" s="78"/>
       <c r="AZ18" s="79"/>
-      <c r="BA18" s="109"/>
-      <c r="BB18" s="110"/>
+      <c r="BA18" s="89"/>
+      <c r="BB18" s="90"/>
       <c r="BC18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD18" s="111"/>
-      <c r="BE18" s="112"/>
-      <c r="BF18" s="80"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="78"/>
       <c r="BG18" s="79"/>
     </row>
     <row r="19" spans="1:59">
-      <c r="A19" s="43"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="150"/>
       <c r="D19" s="151"/>
       <c r="E19" s="151"/>
@@ -3025,57 +3037,57 @@
       <c r="N19" s="151"/>
       <c r="O19" s="151"/>
       <c r="P19" s="152"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="80"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="80"/>
+      <c r="AN19" s="78"/>
       <c r="AO19" s="79"/>
-      <c r="AP19" s="109"/>
-      <c r="AQ19" s="110"/>
+      <c r="AP19" s="89"/>
+      <c r="AQ19" s="90"/>
       <c r="AR19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="112"/>
-      <c r="AU19" s="80"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="78"/>
       <c r="AV19" s="79"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="80"/>
+      <c r="AW19" s="88"/>
+      <c r="AX19" s="80"/>
+      <c r="AY19" s="78"/>
       <c r="AZ19" s="79"/>
-      <c r="BA19" s="109"/>
-      <c r="BB19" s="110"/>
+      <c r="BA19" s="89"/>
+      <c r="BB19" s="90"/>
       <c r="BC19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD19" s="111"/>
-      <c r="BE19" s="112"/>
-      <c r="BF19" s="80"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="78"/>
       <c r="BG19" s="79"/>
     </row>
     <row r="20" spans="1:59">
-      <c r="A20" s="43"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="150"/>
       <c r="D20" s="151"/>
       <c r="E20" s="151"/>
@@ -3090,57 +3102,57 @@
       <c r="N20" s="151"/>
       <c r="O20" s="151"/>
       <c r="P20" s="152"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="149"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="80"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="78"/>
       <c r="AO20" s="79"/>
-      <c r="AP20" s="109"/>
-      <c r="AQ20" s="110"/>
+      <c r="AP20" s="89"/>
+      <c r="AQ20" s="90"/>
       <c r="AR20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="112"/>
-      <c r="AU20" s="80"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="78"/>
       <c r="AV20" s="79"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="103"/>
-      <c r="AY20" s="80"/>
+      <c r="AW20" s="88"/>
+      <c r="AX20" s="80"/>
+      <c r="AY20" s="78"/>
       <c r="AZ20" s="79"/>
-      <c r="BA20" s="109"/>
-      <c r="BB20" s="110"/>
+      <c r="BA20" s="89"/>
+      <c r="BB20" s="90"/>
       <c r="BC20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD20" s="111"/>
-      <c r="BE20" s="112"/>
-      <c r="BF20" s="80"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="78"/>
       <c r="BG20" s="79"/>
     </row>
     <row r="21" spans="1:59">
-      <c r="A21" s="43"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="150"/>
       <c r="D21" s="151"/>
       <c r="E21" s="151"/>
@@ -3155,57 +3167,57 @@
       <c r="N21" s="151"/>
       <c r="O21" s="151"/>
       <c r="P21" s="152"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="78"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="81"/>
       <c r="AO21" s="79"/>
-      <c r="AP21" s="123"/>
-      <c r="AQ21" s="110"/>
+      <c r="AP21" s="129"/>
+      <c r="AQ21" s="90"/>
       <c r="AR21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS21" s="124"/>
-      <c r="AT21" s="112"/>
-      <c r="AU21" s="80"/>
+      <c r="AS21" s="130"/>
+      <c r="AT21" s="92"/>
+      <c r="AU21" s="78"/>
       <c r="AV21" s="79"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="80"/>
+      <c r="AW21" s="88"/>
+      <c r="AX21" s="80"/>
+      <c r="AY21" s="78"/>
       <c r="AZ21" s="79"/>
-      <c r="BA21" s="109"/>
-      <c r="BB21" s="110"/>
+      <c r="BA21" s="89"/>
+      <c r="BB21" s="90"/>
       <c r="BC21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD21" s="111"/>
-      <c r="BE21" s="112"/>
-      <c r="BF21" s="80"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="92"/>
+      <c r="BF21" s="78"/>
       <c r="BG21" s="79"/>
     </row>
     <row r="22" spans="1:59">
-      <c r="A22" s="43"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="150"/>
       <c r="D22" s="151"/>
       <c r="E22" s="151"/>
@@ -3220,57 +3232,57 @@
       <c r="N22" s="151"/>
       <c r="O22" s="151"/>
       <c r="P22" s="152"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="80"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="78"/>
       <c r="AO22" s="79"/>
-      <c r="AP22" s="109"/>
-      <c r="AQ22" s="110"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="90"/>
       <c r="AR22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS22" s="111"/>
-      <c r="AT22" s="112"/>
-      <c r="AU22" s="80"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="92"/>
+      <c r="AU22" s="78"/>
       <c r="AV22" s="79"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="103"/>
-      <c r="AY22" s="80"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="80"/>
+      <c r="AY22" s="78"/>
       <c r="AZ22" s="79"/>
-      <c r="BA22" s="109"/>
-      <c r="BB22" s="110"/>
+      <c r="BA22" s="89"/>
+      <c r="BB22" s="90"/>
       <c r="BC22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD22" s="111"/>
-      <c r="BE22" s="112"/>
-      <c r="BF22" s="80"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="92"/>
+      <c r="BF22" s="78"/>
       <c r="BG22" s="79"/>
     </row>
     <row r="23" spans="1:59">
-      <c r="A23" s="43"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="150"/>
       <c r="D23" s="151"/>
       <c r="E23" s="151"/>
@@ -3285,57 +3297,57 @@
       <c r="N23" s="151"/>
       <c r="O23" s="151"/>
       <c r="P23" s="152"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="78"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="81"/>
       <c r="AO23" s="79"/>
-      <c r="AP23" s="123"/>
-      <c r="AQ23" s="110"/>
+      <c r="AP23" s="129"/>
+      <c r="AQ23" s="90"/>
       <c r="AR23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS23" s="124"/>
-      <c r="AT23" s="112"/>
-      <c r="AU23" s="80"/>
+      <c r="AS23" s="130"/>
+      <c r="AT23" s="92"/>
+      <c r="AU23" s="78"/>
       <c r="AV23" s="79"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="103"/>
-      <c r="AY23" s="80"/>
+      <c r="AW23" s="88"/>
+      <c r="AX23" s="80"/>
+      <c r="AY23" s="78"/>
       <c r="AZ23" s="79"/>
-      <c r="BA23" s="109"/>
-      <c r="BB23" s="110"/>
+      <c r="BA23" s="89"/>
+      <c r="BB23" s="90"/>
       <c r="BC23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD23" s="111"/>
-      <c r="BE23" s="112"/>
-      <c r="BF23" s="80"/>
+      <c r="BD23" s="91"/>
+      <c r="BE23" s="92"/>
+      <c r="BF23" s="78"/>
       <c r="BG23" s="79"/>
     </row>
     <row r="24" spans="1:59">
-      <c r="A24" s="43"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="150"/>
       <c r="D24" s="151"/>
       <c r="E24" s="151"/>
@@ -3350,57 +3362,57 @@
       <c r="N24" s="151"/>
       <c r="O24" s="151"/>
       <c r="P24" s="152"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="80"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="88"/>
+      <c r="AM24" s="80"/>
+      <c r="AN24" s="78"/>
       <c r="AO24" s="79"/>
-      <c r="AP24" s="109"/>
-      <c r="AQ24" s="110"/>
+      <c r="AP24" s="89"/>
+      <c r="AQ24" s="90"/>
       <c r="AR24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="112"/>
-      <c r="AU24" s="80"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="78"/>
       <c r="AV24" s="79"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="103"/>
-      <c r="AY24" s="80"/>
+      <c r="AW24" s="88"/>
+      <c r="AX24" s="80"/>
+      <c r="AY24" s="78"/>
       <c r="AZ24" s="79"/>
-      <c r="BA24" s="109"/>
-      <c r="BB24" s="110"/>
+      <c r="BA24" s="89"/>
+      <c r="BB24" s="90"/>
       <c r="BC24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD24" s="111"/>
-      <c r="BE24" s="112"/>
-      <c r="BF24" s="80"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="78"/>
       <c r="BG24" s="79"/>
     </row>
     <row r="25" spans="1:59">
-      <c r="A25" s="43"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="150"/>
       <c r="D25" s="151"/>
       <c r="E25" s="151"/>
@@ -3415,57 +3427,57 @@
       <c r="N25" s="151"/>
       <c r="O25" s="151"/>
       <c r="P25" s="152"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="103"/>
-      <c r="AN25" s="78"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="81"/>
       <c r="AO25" s="79"/>
-      <c r="AP25" s="123"/>
-      <c r="AQ25" s="110"/>
+      <c r="AP25" s="129"/>
+      <c r="AQ25" s="90"/>
       <c r="AR25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="112"/>
-      <c r="AU25" s="80"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="92"/>
+      <c r="AU25" s="78"/>
       <c r="AV25" s="79"/>
-      <c r="AW25" s="113"/>
-      <c r="AX25" s="103"/>
-      <c r="AY25" s="80"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="80"/>
+      <c r="AY25" s="78"/>
       <c r="AZ25" s="79"/>
-      <c r="BA25" s="109"/>
-      <c r="BB25" s="110"/>
+      <c r="BA25" s="89"/>
+      <c r="BB25" s="90"/>
       <c r="BC25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD25" s="111"/>
-      <c r="BE25" s="112"/>
-      <c r="BF25" s="80"/>
+      <c r="BD25" s="91"/>
+      <c r="BE25" s="92"/>
+      <c r="BF25" s="78"/>
       <c r="BG25" s="79"/>
     </row>
     <row r="26" spans="1:59">
-      <c r="A26" s="43"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="150"/>
       <c r="D26" s="151"/>
       <c r="E26" s="151"/>
@@ -3480,57 +3492,57 @@
       <c r="N26" s="151"/>
       <c r="O26" s="151"/>
       <c r="P26" s="152"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="78"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="81"/>
       <c r="AO26" s="79"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="110"/>
+      <c r="AP26" s="129"/>
+      <c r="AQ26" s="90"/>
       <c r="AR26" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS26" s="111"/>
-      <c r="AT26" s="112"/>
-      <c r="AU26" s="80"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="92"/>
+      <c r="AU26" s="78"/>
       <c r="AV26" s="79"/>
-      <c r="AW26" s="113"/>
-      <c r="AX26" s="103"/>
-      <c r="AY26" s="80"/>
+      <c r="AW26" s="88"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="78"/>
       <c r="AZ26" s="79"/>
-      <c r="BA26" s="109"/>
-      <c r="BB26" s="110"/>
+      <c r="BA26" s="89"/>
+      <c r="BB26" s="90"/>
       <c r="BC26" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD26" s="111"/>
-      <c r="BE26" s="112"/>
-      <c r="BF26" s="80"/>
+      <c r="BD26" s="91"/>
+      <c r="BE26" s="92"/>
+      <c r="BF26" s="78"/>
       <c r="BG26" s="79"/>
     </row>
     <row r="27" spans="1:59">
-      <c r="A27" s="43"/>
-      <c r="B27" s="81"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="150"/>
       <c r="D27" s="151"/>
       <c r="E27" s="151"/>
@@ -3545,57 +3557,57 @@
       <c r="N27" s="151"/>
       <c r="O27" s="151"/>
       <c r="P27" s="152"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="78"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="81"/>
       <c r="AO27" s="79"/>
-      <c r="AP27" s="123"/>
-      <c r="AQ27" s="110"/>
+      <c r="AP27" s="129"/>
+      <c r="AQ27" s="90"/>
       <c r="AR27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="112"/>
-      <c r="AU27" s="80"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="92"/>
+      <c r="AU27" s="78"/>
       <c r="AV27" s="79"/>
-      <c r="AW27" s="113"/>
-      <c r="AX27" s="103"/>
-      <c r="AY27" s="80"/>
+      <c r="AW27" s="88"/>
+      <c r="AX27" s="80"/>
+      <c r="AY27" s="78"/>
       <c r="AZ27" s="79"/>
-      <c r="BA27" s="109"/>
-      <c r="BB27" s="110"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="90"/>
       <c r="BC27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD27" s="111"/>
-      <c r="BE27" s="112"/>
-      <c r="BF27" s="80"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="92"/>
+      <c r="BF27" s="78"/>
       <c r="BG27" s="79"/>
     </row>
     <row r="28" spans="1:59">
-      <c r="A28" s="43"/>
-      <c r="B28" s="81"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="150"/>
       <c r="D28" s="151"/>
       <c r="E28" s="151"/>
@@ -3610,167 +3622,167 @@
       <c r="N28" s="151"/>
       <c r="O28" s="151"/>
       <c r="P28" s="152"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="43"/>
-      <c r="AM28" s="103"/>
-      <c r="AN28" s="78"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="81"/>
       <c r="AO28" s="79"/>
-      <c r="AP28" s="123"/>
-      <c r="AQ28" s="110"/>
+      <c r="AP28" s="129"/>
+      <c r="AQ28" s="90"/>
       <c r="AR28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="112"/>
-      <c r="AU28" s="80"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="78"/>
       <c r="AV28" s="79"/>
-      <c r="AW28" s="113"/>
-      <c r="AX28" s="103"/>
-      <c r="AY28" s="80"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="80"/>
+      <c r="AY28" s="78"/>
       <c r="AZ28" s="79"/>
-      <c r="BA28" s="109"/>
-      <c r="BB28" s="110"/>
+      <c r="BA28" s="89"/>
+      <c r="BB28" s="90"/>
       <c r="BC28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD28" s="111"/>
-      <c r="BE28" s="112"/>
-      <c r="BF28" s="80"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="78"/>
       <c r="BG28" s="79"/>
     </row>
     <row r="29" spans="1:59" ht="13.2" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="119"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
       <c r="Q29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="122"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="128"/>
       <c r="X29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="122"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="128"/>
       <c r="AE29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF29" s="118"/>
-      <c r="AG29" s="118"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AK29" s="119"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="78"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="124"/>
+      <c r="AK29" s="125"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="81"/>
       <c r="AO29" s="79"/>
-      <c r="AP29" s="123"/>
-      <c r="AQ29" s="110"/>
+      <c r="AP29" s="129"/>
+      <c r="AQ29" s="90"/>
       <c r="AR29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="112"/>
-      <c r="AU29" s="80"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="92"/>
+      <c r="AU29" s="78"/>
       <c r="AV29" s="79"/>
-      <c r="AW29" s="113"/>
-      <c r="AX29" s="103"/>
-      <c r="AY29" s="80"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="80"/>
+      <c r="AY29" s="78"/>
       <c r="AZ29" s="79"/>
-      <c r="BA29" s="109"/>
-      <c r="BB29" s="110"/>
+      <c r="BA29" s="89"/>
+      <c r="BB29" s="90"/>
       <c r="BC29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD29" s="111"/>
-      <c r="BE29" s="112"/>
-      <c r="BF29" s="80"/>
+      <c r="BD29" s="91"/>
+      <c r="BE29" s="92"/>
+      <c r="BF29" s="78"/>
       <c r="BG29" s="79"/>
     </row>
     <row r="30" spans="1:59" ht="6.6" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="237"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="237"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="237"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="237"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="242"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="242"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="242"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="242"/>
       <c r="AL30" s="182"/>
       <c r="AM30" s="183"/>
       <c r="AN30" s="186"/>
@@ -3799,43 +3811,43 @@
       <c r="BG30" s="195"/>
     </row>
     <row r="31" spans="1:59" ht="6.6" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="120"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="126"/>
       <c r="AL31" s="184"/>
       <c r="AM31" s="185"/>
       <c r="AN31" s="188"/>
@@ -3897,31 +3909,31 @@
       <c r="AI32" s="166"/>
       <c r="AJ32" s="166"/>
       <c r="AK32" s="167"/>
-      <c r="AL32" s="113"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="80"/>
+      <c r="AL32" s="88"/>
+      <c r="AM32" s="80"/>
+      <c r="AN32" s="78"/>
       <c r="AO32" s="79"/>
-      <c r="AP32" s="109"/>
-      <c r="AQ32" s="110"/>
+      <c r="AP32" s="89"/>
+      <c r="AQ32" s="90"/>
       <c r="AR32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="112"/>
-      <c r="AU32" s="80"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="92"/>
+      <c r="AU32" s="78"/>
       <c r="AV32" s="79"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="103"/>
-      <c r="AY32" s="80"/>
+      <c r="AW32" s="88"/>
+      <c r="AX32" s="80"/>
+      <c r="AY32" s="78"/>
       <c r="AZ32" s="79"/>
-      <c r="BA32" s="109"/>
-      <c r="BB32" s="110"/>
+      <c r="BA32" s="89"/>
+      <c r="BB32" s="90"/>
       <c r="BC32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD32" s="111"/>
-      <c r="BE32" s="112"/>
-      <c r="BF32" s="80"/>
+      <c r="BD32" s="91"/>
+      <c r="BE32" s="92"/>
+      <c r="BF32" s="78"/>
       <c r="BG32" s="79"/>
     </row>
     <row r="33" spans="1:59">
@@ -3972,31 +3984,31 @@
       <c r="AI33" s="154"/>
       <c r="AJ33" s="154"/>
       <c r="AK33" s="155"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="103"/>
-      <c r="AN33" s="80"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="80"/>
+      <c r="AN33" s="78"/>
       <c r="AO33" s="79"/>
-      <c r="AP33" s="109"/>
-      <c r="AQ33" s="110"/>
+      <c r="AP33" s="89"/>
+      <c r="AQ33" s="90"/>
       <c r="AR33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS33" s="111"/>
-      <c r="AT33" s="112"/>
-      <c r="AU33" s="80"/>
+      <c r="AS33" s="91"/>
+      <c r="AT33" s="92"/>
+      <c r="AU33" s="78"/>
       <c r="AV33" s="79"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="103"/>
-      <c r="AY33" s="80"/>
+      <c r="AW33" s="88"/>
+      <c r="AX33" s="80"/>
+      <c r="AY33" s="78"/>
       <c r="AZ33" s="79"/>
-      <c r="BA33" s="109"/>
-      <c r="BB33" s="110"/>
+      <c r="BA33" s="89"/>
+      <c r="BB33" s="90"/>
       <c r="BC33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD33" s="111"/>
-      <c r="BE33" s="112"/>
-      <c r="BF33" s="80"/>
+      <c r="BD33" s="91"/>
+      <c r="BE33" s="92"/>
+      <c r="BF33" s="78"/>
       <c r="BG33" s="79"/>
     </row>
     <row r="34" spans="1:59">
@@ -4037,193 +4049,193 @@
       <c r="AI34" s="157"/>
       <c r="AJ34" s="157"/>
       <c r="AK34" s="158"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="80"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="80"/>
+      <c r="AN34" s="78"/>
       <c r="AO34" s="79"/>
-      <c r="AP34" s="109"/>
-      <c r="AQ34" s="110"/>
+      <c r="AP34" s="89"/>
+      <c r="AQ34" s="90"/>
       <c r="AR34" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="111"/>
-      <c r="AT34" s="112"/>
-      <c r="AU34" s="80"/>
+      <c r="AS34" s="91"/>
+      <c r="AT34" s="92"/>
+      <c r="AU34" s="78"/>
       <c r="AV34" s="79"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="103"/>
-      <c r="AY34" s="80"/>
+      <c r="AW34" s="88"/>
+      <c r="AX34" s="80"/>
+      <c r="AY34" s="78"/>
       <c r="AZ34" s="79"/>
-      <c r="BA34" s="109"/>
-      <c r="BB34" s="110"/>
+      <c r="BA34" s="89"/>
+      <c r="BB34" s="90"/>
       <c r="BC34" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD34" s="111"/>
-      <c r="BE34" s="112"/>
-      <c r="BF34" s="80"/>
+      <c r="BD34" s="91"/>
+      <c r="BE34" s="92"/>
+      <c r="BF34" s="78"/>
       <c r="BG34" s="79"/>
     </row>
     <row r="35" spans="1:59">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="146">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="148">
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="146"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="142" t="s">
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="148"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="149"/>
+      <c r="U35" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="V35" s="143"/>
-      <c r="W35" s="143"/>
-      <c r="X35" s="143"/>
-      <c r="Y35" s="143"/>
-      <c r="Z35" s="143"/>
-      <c r="AA35" s="143"/>
-      <c r="AB35" s="143"/>
-      <c r="AC35" s="143"/>
-      <c r="AD35" s="143"/>
-      <c r="AE35" s="143"/>
-      <c r="AF35" s="143"/>
-      <c r="AG35" s="143"/>
-      <c r="AH35" s="143"/>
-      <c r="AI35" s="143"/>
-      <c r="AJ35" s="143"/>
-      <c r="AK35" s="144"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="103"/>
-      <c r="AN35" s="80"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="117"/>
+      <c r="AD35" s="117"/>
+      <c r="AE35" s="117"/>
+      <c r="AF35" s="117"/>
+      <c r="AG35" s="117"/>
+      <c r="AH35" s="117"/>
+      <c r="AI35" s="117"/>
+      <c r="AJ35" s="117"/>
+      <c r="AK35" s="118"/>
+      <c r="AL35" s="88"/>
+      <c r="AM35" s="80"/>
+      <c r="AN35" s="78"/>
       <c r="AO35" s="79"/>
-      <c r="AP35" s="109"/>
-      <c r="AQ35" s="110"/>
+      <c r="AP35" s="89"/>
+      <c r="AQ35" s="90"/>
       <c r="AR35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS35" s="111"/>
-      <c r="AT35" s="112"/>
-      <c r="AU35" s="80"/>
+      <c r="AS35" s="91"/>
+      <c r="AT35" s="92"/>
+      <c r="AU35" s="78"/>
       <c r="AV35" s="79"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="103"/>
-      <c r="AY35" s="80"/>
+      <c r="AW35" s="88"/>
+      <c r="AX35" s="80"/>
+      <c r="AY35" s="78"/>
       <c r="AZ35" s="79"/>
-      <c r="BA35" s="109"/>
-      <c r="BB35" s="110"/>
+      <c r="BA35" s="89"/>
+      <c r="BB35" s="90"/>
       <c r="BC35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD35" s="111"/>
-      <c r="BE35" s="112"/>
-      <c r="BF35" s="80"/>
+      <c r="BD35" s="91"/>
+      <c r="BE35" s="92"/>
+      <c r="BF35" s="78"/>
       <c r="BG35" s="79"/>
     </row>
     <row r="36" spans="1:59">
-      <c r="A36" s="142" t="s">
+      <c r="A36" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="142" t="s">
+      <c r="B36" s="118"/>
+      <c r="C36" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143"/>
-      <c r="N36" s="143"/>
-      <c r="O36" s="143"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="142" t="s">
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="R36" s="144"/>
-      <c r="S36" s="142" t="s">
+      <c r="R36" s="118"/>
+      <c r="S36" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="T36" s="144"/>
-      <c r="U36" s="142" t="s">
+      <c r="T36" s="118"/>
+      <c r="U36" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="V36" s="144"/>
-      <c r="W36" s="142" t="s">
+      <c r="V36" s="118"/>
+      <c r="W36" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="X36" s="143"/>
-      <c r="Y36" s="144"/>
-      <c r="Z36" s="142" t="s">
+      <c r="X36" s="117"/>
+      <c r="Y36" s="118"/>
+      <c r="Z36" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="AA36" s="143"/>
-      <c r="AB36" s="144"/>
-      <c r="AC36" s="142" t="s">
+      <c r="AA36" s="117"/>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="AD36" s="143"/>
-      <c r="AE36" s="144"/>
-      <c r="AF36" s="142" t="s">
+      <c r="AD36" s="117"/>
+      <c r="AE36" s="118"/>
+      <c r="AF36" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AG36" s="143"/>
-      <c r="AH36" s="144"/>
-      <c r="AI36" s="142" t="s">
+      <c r="AG36" s="117"/>
+      <c r="AH36" s="118"/>
+      <c r="AI36" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AJ36" s="143"/>
-      <c r="AK36" s="144"/>
-      <c r="AL36" s="113"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="80"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="118"/>
+      <c r="AL36" s="88"/>
+      <c r="AM36" s="80"/>
+      <c r="AN36" s="78"/>
       <c r="AO36" s="79"/>
-      <c r="AP36" s="109"/>
-      <c r="AQ36" s="110"/>
+      <c r="AP36" s="89"/>
+      <c r="AQ36" s="90"/>
       <c r="AR36" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS36" s="111"/>
-      <c r="AT36" s="112"/>
-      <c r="AU36" s="80"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="92"/>
+      <c r="AU36" s="78"/>
       <c r="AV36" s="79"/>
-      <c r="AW36" s="113"/>
-      <c r="AX36" s="103"/>
-      <c r="AY36" s="80"/>
+      <c r="AW36" s="88"/>
+      <c r="AX36" s="80"/>
+      <c r="AY36" s="78"/>
       <c r="AZ36" s="79"/>
-      <c r="BA36" s="109"/>
-      <c r="BB36" s="110"/>
+      <c r="BA36" s="89"/>
+      <c r="BB36" s="90"/>
       <c r="BC36" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD36" s="111"/>
-      <c r="BE36" s="112"/>
-      <c r="BF36" s="80"/>
+      <c r="BD36" s="91"/>
+      <c r="BE36" s="92"/>
+      <c r="BF36" s="78"/>
       <c r="BG36" s="79"/>
     </row>
     <row r="37" spans="1:59">
-      <c r="A37" s="43"/>
-      <c r="B37" s="81"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="150"/>
       <c r="D37" s="151"/>
       <c r="E37" s="151"/>
@@ -4238,57 +4250,57 @@
       <c r="N37" s="151"/>
       <c r="O37" s="151"/>
       <c r="P37" s="152"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="145"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="119"/>
       <c r="V37" s="168"/>
-      <c r="W37" s="145"/>
+      <c r="W37" s="119"/>
       <c r="X37" s="169"/>
       <c r="Y37" s="168"/>
-      <c r="Z37" s="145"/>
+      <c r="Z37" s="119"/>
       <c r="AA37" s="169"/>
       <c r="AB37" s="168"/>
-      <c r="AC37" s="145"/>
+      <c r="AC37" s="119"/>
       <c r="AD37" s="169"/>
       <c r="AE37" s="168"/>
-      <c r="AF37" s="145"/>
+      <c r="AF37" s="119"/>
       <c r="AG37" s="169"/>
       <c r="AH37" s="168"/>
-      <c r="AI37" s="145"/>
+      <c r="AI37" s="119"/>
       <c r="AJ37" s="169"/>
       <c r="AK37" s="168"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="103"/>
-      <c r="AN37" s="80"/>
+      <c r="AL37" s="88"/>
+      <c r="AM37" s="80"/>
+      <c r="AN37" s="78"/>
       <c r="AO37" s="79"/>
-      <c r="AP37" s="109"/>
-      <c r="AQ37" s="110"/>
+      <c r="AP37" s="89"/>
+      <c r="AQ37" s="90"/>
       <c r="AR37" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS37" s="111"/>
-      <c r="AT37" s="112"/>
-      <c r="AU37" s="80"/>
+      <c r="AS37" s="91"/>
+      <c r="AT37" s="92"/>
+      <c r="AU37" s="78"/>
       <c r="AV37" s="79"/>
-      <c r="AW37" s="113"/>
-      <c r="AX37" s="103"/>
-      <c r="AY37" s="80"/>
+      <c r="AW37" s="88"/>
+      <c r="AX37" s="80"/>
+      <c r="AY37" s="78"/>
       <c r="AZ37" s="79"/>
-      <c r="BA37" s="109"/>
-      <c r="BB37" s="110"/>
+      <c r="BA37" s="89"/>
+      <c r="BB37" s="90"/>
       <c r="BC37" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD37" s="111"/>
-      <c r="BE37" s="112"/>
-      <c r="BF37" s="80"/>
+      <c r="BD37" s="91"/>
+      <c r="BE37" s="92"/>
+      <c r="BF37" s="78"/>
       <c r="BG37" s="79"/>
     </row>
     <row r="38" spans="1:59">
-      <c r="A38" s="43"/>
-      <c r="B38" s="81"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="150"/>
       <c r="D38" s="151"/>
       <c r="E38" s="151"/>
@@ -4303,57 +4315,57 @@
       <c r="N38" s="151"/>
       <c r="O38" s="151"/>
       <c r="P38" s="152"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="145"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="119"/>
       <c r="V38" s="168"/>
-      <c r="W38" s="145"/>
+      <c r="W38" s="119"/>
       <c r="X38" s="169"/>
       <c r="Y38" s="168"/>
-      <c r="Z38" s="145"/>
+      <c r="Z38" s="119"/>
       <c r="AA38" s="169"/>
       <c r="AB38" s="168"/>
-      <c r="AC38" s="145"/>
+      <c r="AC38" s="119"/>
       <c r="AD38" s="169"/>
       <c r="AE38" s="168"/>
-      <c r="AF38" s="145"/>
+      <c r="AF38" s="119"/>
       <c r="AG38" s="169"/>
       <c r="AH38" s="168"/>
-      <c r="AI38" s="145"/>
+      <c r="AI38" s="119"/>
       <c r="AJ38" s="169"/>
       <c r="AK38" s="168"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="103"/>
-      <c r="AN38" s="80"/>
+      <c r="AL38" s="88"/>
+      <c r="AM38" s="80"/>
+      <c r="AN38" s="78"/>
       <c r="AO38" s="79"/>
-      <c r="AP38" s="109"/>
-      <c r="AQ38" s="110"/>
+      <c r="AP38" s="89"/>
+      <c r="AQ38" s="90"/>
       <c r="AR38" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS38" s="111"/>
-      <c r="AT38" s="112"/>
-      <c r="AU38" s="80"/>
+      <c r="AS38" s="91"/>
+      <c r="AT38" s="92"/>
+      <c r="AU38" s="78"/>
       <c r="AV38" s="79"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="103"/>
-      <c r="AY38" s="80"/>
+      <c r="AW38" s="88"/>
+      <c r="AX38" s="80"/>
+      <c r="AY38" s="78"/>
       <c r="AZ38" s="79"/>
-      <c r="BA38" s="109"/>
-      <c r="BB38" s="110"/>
+      <c r="BA38" s="89"/>
+      <c r="BB38" s="90"/>
       <c r="BC38" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD38" s="111"/>
-      <c r="BE38" s="112"/>
-      <c r="BF38" s="80"/>
+      <c r="BD38" s="91"/>
+      <c r="BE38" s="92"/>
+      <c r="BF38" s="78"/>
       <c r="BG38" s="79"/>
     </row>
     <row r="39" spans="1:59">
-      <c r="A39" s="43"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="150"/>
       <c r="D39" s="151"/>
       <c r="E39" s="151"/>
@@ -4368,57 +4380,57 @@
       <c r="N39" s="151"/>
       <c r="O39" s="151"/>
       <c r="P39" s="152"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="145"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="119"/>
       <c r="V39" s="168"/>
-      <c r="W39" s="145"/>
+      <c r="W39" s="119"/>
       <c r="X39" s="169"/>
       <c r="Y39" s="168"/>
-      <c r="Z39" s="145"/>
+      <c r="Z39" s="119"/>
       <c r="AA39" s="169"/>
       <c r="AB39" s="168"/>
-      <c r="AC39" s="145"/>
+      <c r="AC39" s="119"/>
       <c r="AD39" s="169"/>
       <c r="AE39" s="168"/>
-      <c r="AF39" s="145"/>
+      <c r="AF39" s="119"/>
       <c r="AG39" s="169"/>
       <c r="AH39" s="168"/>
-      <c r="AI39" s="145"/>
+      <c r="AI39" s="119"/>
       <c r="AJ39" s="169"/>
       <c r="AK39" s="168"/>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="103"/>
-      <c r="AN39" s="80"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="80"/>
+      <c r="AN39" s="78"/>
       <c r="AO39" s="79"/>
-      <c r="AP39" s="109"/>
-      <c r="AQ39" s="110"/>
+      <c r="AP39" s="89"/>
+      <c r="AQ39" s="90"/>
       <c r="AR39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS39" s="111"/>
-      <c r="AT39" s="112"/>
-      <c r="AU39" s="80"/>
+      <c r="AS39" s="91"/>
+      <c r="AT39" s="92"/>
+      <c r="AU39" s="78"/>
       <c r="AV39" s="79"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="103"/>
-      <c r="AY39" s="80"/>
+      <c r="AW39" s="88"/>
+      <c r="AX39" s="80"/>
+      <c r="AY39" s="78"/>
       <c r="AZ39" s="79"/>
-      <c r="BA39" s="109"/>
-      <c r="BB39" s="110"/>
+      <c r="BA39" s="89"/>
+      <c r="BB39" s="90"/>
       <c r="BC39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD39" s="111"/>
-      <c r="BE39" s="112"/>
-      <c r="BF39" s="80"/>
+      <c r="BD39" s="91"/>
+      <c r="BE39" s="92"/>
+      <c r="BF39" s="78"/>
       <c r="BG39" s="79"/>
     </row>
     <row r="40" spans="1:59">
-      <c r="A40" s="43"/>
-      <c r="B40" s="81"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="150"/>
       <c r="D40" s="151"/>
       <c r="E40" s="151"/>
@@ -4433,57 +4445,57 @@
       <c r="N40" s="151"/>
       <c r="O40" s="151"/>
       <c r="P40" s="152"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="145"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="97"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="119"/>
       <c r="V40" s="168"/>
-      <c r="W40" s="145"/>
+      <c r="W40" s="119"/>
       <c r="X40" s="169"/>
       <c r="Y40" s="168"/>
-      <c r="Z40" s="145"/>
+      <c r="Z40" s="119"/>
       <c r="AA40" s="169"/>
       <c r="AB40" s="168"/>
-      <c r="AC40" s="145"/>
+      <c r="AC40" s="119"/>
       <c r="AD40" s="169"/>
       <c r="AE40" s="168"/>
-      <c r="AF40" s="145"/>
+      <c r="AF40" s="119"/>
       <c r="AG40" s="169"/>
       <c r="AH40" s="168"/>
-      <c r="AI40" s="145"/>
+      <c r="AI40" s="119"/>
       <c r="AJ40" s="169"/>
       <c r="AK40" s="168"/>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="103"/>
-      <c r="AN40" s="80"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="80"/>
+      <c r="AN40" s="78"/>
       <c r="AO40" s="79"/>
-      <c r="AP40" s="109"/>
-      <c r="AQ40" s="110"/>
+      <c r="AP40" s="89"/>
+      <c r="AQ40" s="90"/>
       <c r="AR40" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS40" s="111"/>
-      <c r="AT40" s="112"/>
-      <c r="AU40" s="80"/>
+      <c r="AS40" s="91"/>
+      <c r="AT40" s="92"/>
+      <c r="AU40" s="78"/>
       <c r="AV40" s="79"/>
-      <c r="AW40" s="113"/>
-      <c r="AX40" s="103"/>
-      <c r="AY40" s="80"/>
+      <c r="AW40" s="88"/>
+      <c r="AX40" s="80"/>
+      <c r="AY40" s="78"/>
       <c r="AZ40" s="79"/>
-      <c r="BA40" s="109"/>
-      <c r="BB40" s="110"/>
+      <c r="BA40" s="89"/>
+      <c r="BB40" s="90"/>
       <c r="BC40" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD40" s="111"/>
-      <c r="BE40" s="112"/>
-      <c r="BF40" s="80"/>
+      <c r="BD40" s="91"/>
+      <c r="BE40" s="92"/>
+      <c r="BF40" s="78"/>
       <c r="BG40" s="79"/>
     </row>
     <row r="41" spans="1:59">
-      <c r="A41" s="43"/>
-      <c r="B41" s="81"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="150"/>
       <c r="D41" s="151"/>
       <c r="E41" s="151"/>
@@ -4498,57 +4510,57 @@
       <c r="N41" s="151"/>
       <c r="O41" s="151"/>
       <c r="P41" s="152"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="145"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="97"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="119"/>
       <c r="V41" s="168"/>
-      <c r="W41" s="145"/>
+      <c r="W41" s="119"/>
       <c r="X41" s="169"/>
       <c r="Y41" s="168"/>
-      <c r="Z41" s="145"/>
+      <c r="Z41" s="119"/>
       <c r="AA41" s="169"/>
       <c r="AB41" s="168"/>
-      <c r="AC41" s="145"/>
+      <c r="AC41" s="119"/>
       <c r="AD41" s="169"/>
       <c r="AE41" s="168"/>
-      <c r="AF41" s="145"/>
+      <c r="AF41" s="119"/>
       <c r="AG41" s="169"/>
       <c r="AH41" s="168"/>
-      <c r="AI41" s="145"/>
+      <c r="AI41" s="119"/>
       <c r="AJ41" s="169"/>
       <c r="AK41" s="168"/>
-      <c r="AL41" s="113"/>
-      <c r="AM41" s="103"/>
-      <c r="AN41" s="80"/>
+      <c r="AL41" s="88"/>
+      <c r="AM41" s="80"/>
+      <c r="AN41" s="78"/>
       <c r="AO41" s="79"/>
-      <c r="AP41" s="109"/>
-      <c r="AQ41" s="110"/>
+      <c r="AP41" s="89"/>
+      <c r="AQ41" s="90"/>
       <c r="AR41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS41" s="111"/>
-      <c r="AT41" s="112"/>
-      <c r="AU41" s="80"/>
+      <c r="AS41" s="91"/>
+      <c r="AT41" s="92"/>
+      <c r="AU41" s="78"/>
       <c r="AV41" s="79"/>
-      <c r="AW41" s="113"/>
-      <c r="AX41" s="103"/>
-      <c r="AY41" s="80"/>
+      <c r="AW41" s="88"/>
+      <c r="AX41" s="80"/>
+      <c r="AY41" s="78"/>
       <c r="AZ41" s="79"/>
-      <c r="BA41" s="109"/>
-      <c r="BB41" s="110"/>
+      <c r="BA41" s="89"/>
+      <c r="BB41" s="90"/>
       <c r="BC41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD41" s="111"/>
-      <c r="BE41" s="112"/>
-      <c r="BF41" s="80"/>
+      <c r="BD41" s="91"/>
+      <c r="BE41" s="92"/>
+      <c r="BF41" s="78"/>
       <c r="BG41" s="79"/>
     </row>
     <row r="42" spans="1:59">
-      <c r="A42" s="43"/>
-      <c r="B42" s="81"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="108"/>
       <c r="C42" s="150"/>
       <c r="D42" s="151"/>
       <c r="E42" s="151"/>
@@ -4563,57 +4575,57 @@
       <c r="N42" s="151"/>
       <c r="O42" s="151"/>
       <c r="P42" s="152"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="145"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="97"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="119"/>
       <c r="V42" s="168"/>
-      <c r="W42" s="145"/>
+      <c r="W42" s="119"/>
       <c r="X42" s="169"/>
       <c r="Y42" s="168"/>
-      <c r="Z42" s="145"/>
+      <c r="Z42" s="119"/>
       <c r="AA42" s="169"/>
       <c r="AB42" s="168"/>
-      <c r="AC42" s="145"/>
+      <c r="AC42" s="119"/>
       <c r="AD42" s="169"/>
       <c r="AE42" s="168"/>
-      <c r="AF42" s="145"/>
+      <c r="AF42" s="119"/>
       <c r="AG42" s="169"/>
       <c r="AH42" s="168"/>
-      <c r="AI42" s="145"/>
+      <c r="AI42" s="119"/>
       <c r="AJ42" s="169"/>
       <c r="AK42" s="168"/>
-      <c r="AL42" s="113"/>
-      <c r="AM42" s="103"/>
-      <c r="AN42" s="80"/>
+      <c r="AL42" s="88"/>
+      <c r="AM42" s="80"/>
+      <c r="AN42" s="78"/>
       <c r="AO42" s="79"/>
-      <c r="AP42" s="109"/>
-      <c r="AQ42" s="110"/>
+      <c r="AP42" s="89"/>
+      <c r="AQ42" s="90"/>
       <c r="AR42" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS42" s="111"/>
-      <c r="AT42" s="112"/>
-      <c r="AU42" s="80"/>
+      <c r="AS42" s="91"/>
+      <c r="AT42" s="92"/>
+      <c r="AU42" s="78"/>
       <c r="AV42" s="79"/>
-      <c r="AW42" s="113"/>
-      <c r="AX42" s="103"/>
-      <c r="AY42" s="80"/>
+      <c r="AW42" s="88"/>
+      <c r="AX42" s="80"/>
+      <c r="AY42" s="78"/>
       <c r="AZ42" s="79"/>
-      <c r="BA42" s="109"/>
-      <c r="BB42" s="110"/>
+      <c r="BA42" s="89"/>
+      <c r="BB42" s="90"/>
       <c r="BC42" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD42" s="111"/>
-      <c r="BE42" s="112"/>
-      <c r="BF42" s="80"/>
+      <c r="BD42" s="91"/>
+      <c r="BE42" s="92"/>
+      <c r="BF42" s="78"/>
       <c r="BG42" s="79"/>
     </row>
     <row r="43" spans="1:59">
-      <c r="A43" s="43"/>
-      <c r="B43" s="81"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="108"/>
       <c r="C43" s="150"/>
       <c r="D43" s="151"/>
       <c r="E43" s="151"/>
@@ -4628,57 +4640,57 @@
       <c r="N43" s="151"/>
       <c r="O43" s="151"/>
       <c r="P43" s="152"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="145"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="119"/>
       <c r="V43" s="168"/>
-      <c r="W43" s="145"/>
+      <c r="W43" s="119"/>
       <c r="X43" s="169"/>
       <c r="Y43" s="168"/>
-      <c r="Z43" s="145"/>
+      <c r="Z43" s="119"/>
       <c r="AA43" s="169"/>
       <c r="AB43" s="168"/>
-      <c r="AC43" s="145"/>
+      <c r="AC43" s="119"/>
       <c r="AD43" s="169"/>
       <c r="AE43" s="168"/>
-      <c r="AF43" s="145"/>
+      <c r="AF43" s="119"/>
       <c r="AG43" s="169"/>
       <c r="AH43" s="168"/>
-      <c r="AI43" s="145"/>
+      <c r="AI43" s="119"/>
       <c r="AJ43" s="169"/>
       <c r="AK43" s="168"/>
-      <c r="AL43" s="113"/>
-      <c r="AM43" s="103"/>
-      <c r="AN43" s="80"/>
+      <c r="AL43" s="88"/>
+      <c r="AM43" s="80"/>
+      <c r="AN43" s="78"/>
       <c r="AO43" s="79"/>
-      <c r="AP43" s="109"/>
-      <c r="AQ43" s="110"/>
+      <c r="AP43" s="89"/>
+      <c r="AQ43" s="90"/>
       <c r="AR43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS43" s="111"/>
-      <c r="AT43" s="112"/>
-      <c r="AU43" s="80"/>
+      <c r="AS43" s="91"/>
+      <c r="AT43" s="92"/>
+      <c r="AU43" s="78"/>
       <c r="AV43" s="79"/>
-      <c r="AW43" s="113"/>
-      <c r="AX43" s="103"/>
-      <c r="AY43" s="80"/>
+      <c r="AW43" s="88"/>
+      <c r="AX43" s="80"/>
+      <c r="AY43" s="78"/>
       <c r="AZ43" s="79"/>
-      <c r="BA43" s="109"/>
-      <c r="BB43" s="110"/>
+      <c r="BA43" s="89"/>
+      <c r="BB43" s="90"/>
       <c r="BC43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD43" s="111"/>
-      <c r="BE43" s="112"/>
-      <c r="BF43" s="80"/>
+      <c r="BD43" s="91"/>
+      <c r="BE43" s="92"/>
+      <c r="BF43" s="78"/>
       <c r="BG43" s="79"/>
     </row>
     <row r="44" spans="1:59">
-      <c r="A44" s="43"/>
-      <c r="B44" s="81"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="108"/>
       <c r="C44" s="150"/>
       <c r="D44" s="151"/>
       <c r="E44" s="151"/>
@@ -4693,57 +4705,57 @@
       <c r="N44" s="151"/>
       <c r="O44" s="151"/>
       <c r="P44" s="152"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="145"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="119"/>
       <c r="V44" s="168"/>
-      <c r="W44" s="145"/>
+      <c r="W44" s="119"/>
       <c r="X44" s="169"/>
       <c r="Y44" s="168"/>
-      <c r="Z44" s="145"/>
+      <c r="Z44" s="119"/>
       <c r="AA44" s="169"/>
       <c r="AB44" s="168"/>
-      <c r="AC44" s="145"/>
+      <c r="AC44" s="119"/>
       <c r="AD44" s="169"/>
       <c r="AE44" s="168"/>
-      <c r="AF44" s="145"/>
+      <c r="AF44" s="119"/>
       <c r="AG44" s="169"/>
       <c r="AH44" s="168"/>
-      <c r="AI44" s="145"/>
+      <c r="AI44" s="119"/>
       <c r="AJ44" s="169"/>
       <c r="AK44" s="168"/>
-      <c r="AL44" s="113"/>
-      <c r="AM44" s="103"/>
-      <c r="AN44" s="80"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="80"/>
+      <c r="AN44" s="78"/>
       <c r="AO44" s="79"/>
-      <c r="AP44" s="109"/>
-      <c r="AQ44" s="110"/>
+      <c r="AP44" s="89"/>
+      <c r="AQ44" s="90"/>
       <c r="AR44" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS44" s="111"/>
-      <c r="AT44" s="112"/>
-      <c r="AU44" s="80"/>
+      <c r="AS44" s="91"/>
+      <c r="AT44" s="92"/>
+      <c r="AU44" s="78"/>
       <c r="AV44" s="79"/>
-      <c r="AW44" s="113"/>
-      <c r="AX44" s="103"/>
-      <c r="AY44" s="80"/>
+      <c r="AW44" s="88"/>
+      <c r="AX44" s="80"/>
+      <c r="AY44" s="78"/>
       <c r="AZ44" s="79"/>
-      <c r="BA44" s="109"/>
-      <c r="BB44" s="110"/>
+      <c r="BA44" s="89"/>
+      <c r="BB44" s="90"/>
       <c r="BC44" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD44" s="111"/>
-      <c r="BE44" s="112"/>
-      <c r="BF44" s="80"/>
+      <c r="BD44" s="91"/>
+      <c r="BE44" s="92"/>
+      <c r="BF44" s="78"/>
       <c r="BG44" s="79"/>
     </row>
     <row r="45" spans="1:59">
-      <c r="A45" s="43"/>
-      <c r="B45" s="81"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="108"/>
       <c r="C45" s="150"/>
       <c r="D45" s="151"/>
       <c r="E45" s="151"/>
@@ -4758,57 +4770,57 @@
       <c r="N45" s="151"/>
       <c r="O45" s="151"/>
       <c r="P45" s="152"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="69"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="145"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="119"/>
       <c r="V45" s="168"/>
-      <c r="W45" s="145"/>
+      <c r="W45" s="119"/>
       <c r="X45" s="169"/>
       <c r="Y45" s="168"/>
-      <c r="Z45" s="145"/>
+      <c r="Z45" s="119"/>
       <c r="AA45" s="169"/>
       <c r="AB45" s="168"/>
-      <c r="AC45" s="145"/>
+      <c r="AC45" s="119"/>
       <c r="AD45" s="169"/>
       <c r="AE45" s="168"/>
-      <c r="AF45" s="145"/>
+      <c r="AF45" s="119"/>
       <c r="AG45" s="169"/>
       <c r="AH45" s="168"/>
-      <c r="AI45" s="145"/>
+      <c r="AI45" s="119"/>
       <c r="AJ45" s="169"/>
       <c r="AK45" s="168"/>
-      <c r="AL45" s="113"/>
-      <c r="AM45" s="103"/>
-      <c r="AN45" s="80"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="80"/>
+      <c r="AN45" s="78"/>
       <c r="AO45" s="79"/>
-      <c r="AP45" s="109"/>
-      <c r="AQ45" s="110"/>
+      <c r="AP45" s="89"/>
+      <c r="AQ45" s="90"/>
       <c r="AR45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS45" s="111"/>
-      <c r="AT45" s="112"/>
-      <c r="AU45" s="80"/>
+      <c r="AS45" s="91"/>
+      <c r="AT45" s="92"/>
+      <c r="AU45" s="78"/>
       <c r="AV45" s="79"/>
-      <c r="AW45" s="113"/>
-      <c r="AX45" s="103"/>
-      <c r="AY45" s="80"/>
+      <c r="AW45" s="88"/>
+      <c r="AX45" s="80"/>
+      <c r="AY45" s="78"/>
       <c r="AZ45" s="79"/>
-      <c r="BA45" s="109"/>
-      <c r="BB45" s="110"/>
+      <c r="BA45" s="89"/>
+      <c r="BB45" s="90"/>
       <c r="BC45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD45" s="111"/>
-      <c r="BE45" s="112"/>
-      <c r="BF45" s="80"/>
+      <c r="BD45" s="91"/>
+      <c r="BE45" s="92"/>
+      <c r="BF45" s="78"/>
       <c r="BG45" s="79"/>
     </row>
     <row r="46" spans="1:59">
-      <c r="A46" s="43"/>
-      <c r="B46" s="81"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="150"/>
       <c r="D46" s="151"/>
       <c r="E46" s="151"/>
@@ -4823,57 +4835,57 @@
       <c r="N46" s="151"/>
       <c r="O46" s="151"/>
       <c r="P46" s="152"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="145"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="119"/>
       <c r="V46" s="168"/>
-      <c r="W46" s="145"/>
+      <c r="W46" s="119"/>
       <c r="X46" s="169"/>
       <c r="Y46" s="168"/>
-      <c r="Z46" s="145"/>
+      <c r="Z46" s="119"/>
       <c r="AA46" s="169"/>
       <c r="AB46" s="168"/>
-      <c r="AC46" s="145"/>
+      <c r="AC46" s="119"/>
       <c r="AD46" s="169"/>
       <c r="AE46" s="168"/>
-      <c r="AF46" s="145"/>
+      <c r="AF46" s="119"/>
       <c r="AG46" s="169"/>
       <c r="AH46" s="168"/>
-      <c r="AI46" s="145"/>
+      <c r="AI46" s="119"/>
       <c r="AJ46" s="169"/>
       <c r="AK46" s="168"/>
-      <c r="AL46" s="113"/>
-      <c r="AM46" s="103"/>
-      <c r="AN46" s="80"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="80"/>
+      <c r="AN46" s="78"/>
       <c r="AO46" s="79"/>
-      <c r="AP46" s="109"/>
-      <c r="AQ46" s="110"/>
+      <c r="AP46" s="89"/>
+      <c r="AQ46" s="90"/>
       <c r="AR46" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS46" s="111"/>
-      <c r="AT46" s="112"/>
-      <c r="AU46" s="80"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="92"/>
+      <c r="AU46" s="78"/>
       <c r="AV46" s="79"/>
-      <c r="AW46" s="113"/>
-      <c r="AX46" s="103"/>
-      <c r="AY46" s="80"/>
+      <c r="AW46" s="88"/>
+      <c r="AX46" s="80"/>
+      <c r="AY46" s="78"/>
       <c r="AZ46" s="79"/>
-      <c r="BA46" s="109"/>
-      <c r="BB46" s="110"/>
+      <c r="BA46" s="89"/>
+      <c r="BB46" s="90"/>
       <c r="BC46" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD46" s="111"/>
-      <c r="BE46" s="112"/>
-      <c r="BF46" s="80"/>
+      <c r="BD46" s="91"/>
+      <c r="BE46" s="92"/>
+      <c r="BF46" s="78"/>
       <c r="BG46" s="79"/>
     </row>
     <row r="47" spans="1:59">
-      <c r="A47" s="43"/>
-      <c r="B47" s="81"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="150"/>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -4888,57 +4900,57 @@
       <c r="N47" s="151"/>
       <c r="O47" s="151"/>
       <c r="P47" s="152"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="145"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="97"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="119"/>
       <c r="V47" s="168"/>
-      <c r="W47" s="145"/>
+      <c r="W47" s="119"/>
       <c r="X47" s="169"/>
       <c r="Y47" s="168"/>
-      <c r="Z47" s="145"/>
+      <c r="Z47" s="119"/>
       <c r="AA47" s="169"/>
       <c r="AB47" s="168"/>
-      <c r="AC47" s="145"/>
+      <c r="AC47" s="119"/>
       <c r="AD47" s="169"/>
       <c r="AE47" s="168"/>
-      <c r="AF47" s="145"/>
+      <c r="AF47" s="119"/>
       <c r="AG47" s="169"/>
       <c r="AH47" s="168"/>
-      <c r="AI47" s="145"/>
+      <c r="AI47" s="119"/>
       <c r="AJ47" s="169"/>
       <c r="AK47" s="168"/>
-      <c r="AL47" s="113"/>
-      <c r="AM47" s="103"/>
-      <c r="AN47" s="80"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="80"/>
+      <c r="AN47" s="78"/>
       <c r="AO47" s="79"/>
-      <c r="AP47" s="109"/>
-      <c r="AQ47" s="110"/>
+      <c r="AP47" s="89"/>
+      <c r="AQ47" s="90"/>
       <c r="AR47" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS47" s="111"/>
-      <c r="AT47" s="112"/>
-      <c r="AU47" s="80"/>
+      <c r="AS47" s="91"/>
+      <c r="AT47" s="92"/>
+      <c r="AU47" s="78"/>
       <c r="AV47" s="79"/>
-      <c r="AW47" s="113"/>
-      <c r="AX47" s="103"/>
-      <c r="AY47" s="80"/>
+      <c r="AW47" s="88"/>
+      <c r="AX47" s="80"/>
+      <c r="AY47" s="78"/>
       <c r="AZ47" s="79"/>
-      <c r="BA47" s="109"/>
-      <c r="BB47" s="110"/>
+      <c r="BA47" s="89"/>
+      <c r="BB47" s="90"/>
       <c r="BC47" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD47" s="111"/>
-      <c r="BE47" s="112"/>
-      <c r="BF47" s="80"/>
+      <c r="BD47" s="91"/>
+      <c r="BE47" s="92"/>
+      <c r="BF47" s="78"/>
       <c r="BG47" s="79"/>
     </row>
     <row r="48" spans="1:59">
-      <c r="A48" s="43"/>
-      <c r="B48" s="81"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="150"/>
       <c r="D48" s="151"/>
       <c r="E48" s="151"/>
@@ -4953,57 +4965,57 @@
       <c r="N48" s="151"/>
       <c r="O48" s="151"/>
       <c r="P48" s="152"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="69"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="69"/>
-      <c r="U48" s="145"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="119"/>
       <c r="V48" s="168"/>
-      <c r="W48" s="145"/>
+      <c r="W48" s="119"/>
       <c r="X48" s="169"/>
       <c r="Y48" s="168"/>
-      <c r="Z48" s="145"/>
+      <c r="Z48" s="119"/>
       <c r="AA48" s="169"/>
       <c r="AB48" s="168"/>
-      <c r="AC48" s="145"/>
+      <c r="AC48" s="119"/>
       <c r="AD48" s="169"/>
       <c r="AE48" s="168"/>
-      <c r="AF48" s="145"/>
+      <c r="AF48" s="119"/>
       <c r="AG48" s="169"/>
       <c r="AH48" s="168"/>
-      <c r="AI48" s="145"/>
+      <c r="AI48" s="119"/>
       <c r="AJ48" s="169"/>
       <c r="AK48" s="168"/>
-      <c r="AL48" s="113"/>
-      <c r="AM48" s="103"/>
-      <c r="AN48" s="80"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="80"/>
+      <c r="AN48" s="78"/>
       <c r="AO48" s="79"/>
-      <c r="AP48" s="109"/>
-      <c r="AQ48" s="110"/>
+      <c r="AP48" s="89"/>
+      <c r="AQ48" s="90"/>
       <c r="AR48" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS48" s="111"/>
-      <c r="AT48" s="112"/>
-      <c r="AU48" s="80"/>
+      <c r="AS48" s="91"/>
+      <c r="AT48" s="92"/>
+      <c r="AU48" s="78"/>
       <c r="AV48" s="79"/>
-      <c r="AW48" s="113"/>
-      <c r="AX48" s="103"/>
-      <c r="AY48" s="80"/>
+      <c r="AW48" s="88"/>
+      <c r="AX48" s="80"/>
+      <c r="AY48" s="78"/>
       <c r="AZ48" s="79"/>
-      <c r="BA48" s="109"/>
-      <c r="BB48" s="110"/>
+      <c r="BA48" s="89"/>
+      <c r="BB48" s="90"/>
       <c r="BC48" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD48" s="111"/>
-      <c r="BE48" s="112"/>
-      <c r="BF48" s="80"/>
+      <c r="BD48" s="91"/>
+      <c r="BE48" s="92"/>
+      <c r="BF48" s="78"/>
       <c r="BG48" s="79"/>
     </row>
     <row r="49" spans="1:59">
-      <c r="A49" s="43"/>
-      <c r="B49" s="81"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="150"/>
       <c r="D49" s="151"/>
       <c r="E49" s="151"/>
@@ -5018,57 +5030,57 @@
       <c r="N49" s="151"/>
       <c r="O49" s="151"/>
       <c r="P49" s="152"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="69"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="145"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="97"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="119"/>
       <c r="V49" s="168"/>
-      <c r="W49" s="145"/>
+      <c r="W49" s="119"/>
       <c r="X49" s="169"/>
       <c r="Y49" s="168"/>
-      <c r="Z49" s="145"/>
+      <c r="Z49" s="119"/>
       <c r="AA49" s="169"/>
       <c r="AB49" s="168"/>
-      <c r="AC49" s="145"/>
+      <c r="AC49" s="119"/>
       <c r="AD49" s="169"/>
       <c r="AE49" s="168"/>
-      <c r="AF49" s="145"/>
+      <c r="AF49" s="119"/>
       <c r="AG49" s="169"/>
       <c r="AH49" s="168"/>
-      <c r="AI49" s="145"/>
+      <c r="AI49" s="119"/>
       <c r="AJ49" s="169"/>
       <c r="AK49" s="168"/>
-      <c r="AL49" s="113"/>
-      <c r="AM49" s="103"/>
-      <c r="AN49" s="80"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="80"/>
+      <c r="AN49" s="78"/>
       <c r="AO49" s="79"/>
-      <c r="AP49" s="109"/>
-      <c r="AQ49" s="110"/>
+      <c r="AP49" s="89"/>
+      <c r="AQ49" s="90"/>
       <c r="AR49" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS49" s="111"/>
-      <c r="AT49" s="112"/>
-      <c r="AU49" s="80"/>
+      <c r="AS49" s="91"/>
+      <c r="AT49" s="92"/>
+      <c r="AU49" s="78"/>
       <c r="AV49" s="79"/>
-      <c r="AW49" s="113"/>
-      <c r="AX49" s="103"/>
-      <c r="AY49" s="80"/>
+      <c r="AW49" s="88"/>
+      <c r="AX49" s="80"/>
+      <c r="AY49" s="78"/>
       <c r="AZ49" s="79"/>
-      <c r="BA49" s="109"/>
-      <c r="BB49" s="110"/>
+      <c r="BA49" s="89"/>
+      <c r="BB49" s="90"/>
       <c r="BC49" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD49" s="111"/>
-      <c r="BE49" s="112"/>
-      <c r="BF49" s="80"/>
+      <c r="BD49" s="91"/>
+      <c r="BE49" s="92"/>
+      <c r="BF49" s="78"/>
       <c r="BG49" s="79"/>
     </row>
     <row r="50" spans="1:59">
-      <c r="A50" s="43"/>
-      <c r="B50" s="81"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="150"/>
       <c r="D50" s="151"/>
       <c r="E50" s="151"/>
@@ -5083,57 +5095,57 @@
       <c r="N50" s="151"/>
       <c r="O50" s="151"/>
       <c r="P50" s="152"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="145"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="97"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="119"/>
       <c r="V50" s="168"/>
-      <c r="W50" s="145"/>
+      <c r="W50" s="119"/>
       <c r="X50" s="169"/>
       <c r="Y50" s="168"/>
-      <c r="Z50" s="145"/>
+      <c r="Z50" s="119"/>
       <c r="AA50" s="169"/>
       <c r="AB50" s="168"/>
-      <c r="AC50" s="145"/>
+      <c r="AC50" s="119"/>
       <c r="AD50" s="169"/>
       <c r="AE50" s="168"/>
-      <c r="AF50" s="145"/>
+      <c r="AF50" s="119"/>
       <c r="AG50" s="169"/>
       <c r="AH50" s="168"/>
-      <c r="AI50" s="145"/>
+      <c r="AI50" s="119"/>
       <c r="AJ50" s="169"/>
       <c r="AK50" s="168"/>
-      <c r="AL50" s="113"/>
-      <c r="AM50" s="103"/>
-      <c r="AN50" s="80"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="80"/>
+      <c r="AN50" s="78"/>
       <c r="AO50" s="79"/>
-      <c r="AP50" s="109"/>
-      <c r="AQ50" s="110"/>
+      <c r="AP50" s="89"/>
+      <c r="AQ50" s="90"/>
       <c r="AR50" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS50" s="111"/>
-      <c r="AT50" s="112"/>
-      <c r="AU50" s="80"/>
+      <c r="AS50" s="91"/>
+      <c r="AT50" s="92"/>
+      <c r="AU50" s="78"/>
       <c r="AV50" s="79"/>
-      <c r="AW50" s="113"/>
-      <c r="AX50" s="103"/>
-      <c r="AY50" s="80"/>
+      <c r="AW50" s="88"/>
+      <c r="AX50" s="80"/>
+      <c r="AY50" s="78"/>
       <c r="AZ50" s="79"/>
-      <c r="BA50" s="109"/>
-      <c r="BB50" s="110"/>
+      <c r="BA50" s="89"/>
+      <c r="BB50" s="90"/>
       <c r="BC50" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD50" s="111"/>
-      <c r="BE50" s="112"/>
-      <c r="BF50" s="80"/>
+      <c r="BD50" s="91"/>
+      <c r="BE50" s="92"/>
+      <c r="BF50" s="78"/>
       <c r="BG50" s="79"/>
     </row>
     <row r="51" spans="1:59">
-      <c r="A51" s="43"/>
-      <c r="B51" s="81"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="108"/>
       <c r="C51" s="150"/>
       <c r="D51" s="151"/>
       <c r="E51" s="151"/>
@@ -5148,57 +5160,57 @@
       <c r="N51" s="151"/>
       <c r="O51" s="151"/>
       <c r="P51" s="152"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="145"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="119"/>
       <c r="V51" s="168"/>
-      <c r="W51" s="145"/>
+      <c r="W51" s="119"/>
       <c r="X51" s="169"/>
       <c r="Y51" s="168"/>
-      <c r="Z51" s="145"/>
+      <c r="Z51" s="119"/>
       <c r="AA51" s="169"/>
       <c r="AB51" s="168"/>
-      <c r="AC51" s="145"/>
+      <c r="AC51" s="119"/>
       <c r="AD51" s="169"/>
       <c r="AE51" s="168"/>
-      <c r="AF51" s="145"/>
+      <c r="AF51" s="119"/>
       <c r="AG51" s="169"/>
       <c r="AH51" s="168"/>
-      <c r="AI51" s="145"/>
+      <c r="AI51" s="119"/>
       <c r="AJ51" s="169"/>
       <c r="AK51" s="168"/>
-      <c r="AL51" s="113"/>
-      <c r="AM51" s="103"/>
-      <c r="AN51" s="80"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="80"/>
+      <c r="AN51" s="78"/>
       <c r="AO51" s="79"/>
-      <c r="AP51" s="109"/>
-      <c r="AQ51" s="110"/>
+      <c r="AP51" s="89"/>
+      <c r="AQ51" s="90"/>
       <c r="AR51" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS51" s="111"/>
-      <c r="AT51" s="112"/>
-      <c r="AU51" s="80"/>
+      <c r="AS51" s="91"/>
+      <c r="AT51" s="92"/>
+      <c r="AU51" s="78"/>
       <c r="AV51" s="79"/>
-      <c r="AW51" s="113"/>
-      <c r="AX51" s="103"/>
-      <c r="AY51" s="80"/>
+      <c r="AW51" s="88"/>
+      <c r="AX51" s="80"/>
+      <c r="AY51" s="78"/>
       <c r="AZ51" s="79"/>
-      <c r="BA51" s="109"/>
-      <c r="BB51" s="110"/>
+      <c r="BA51" s="89"/>
+      <c r="BB51" s="90"/>
       <c r="BC51" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD51" s="111"/>
-      <c r="BE51" s="112"/>
-      <c r="BF51" s="80"/>
+      <c r="BD51" s="91"/>
+      <c r="BE51" s="92"/>
+      <c r="BF51" s="78"/>
       <c r="BG51" s="79"/>
     </row>
     <row r="52" spans="1:59">
-      <c r="A52" s="43"/>
-      <c r="B52" s="81"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="150"/>
       <c r="D52" s="151"/>
       <c r="E52" s="151"/>
@@ -5213,57 +5225,57 @@
       <c r="N52" s="151"/>
       <c r="O52" s="151"/>
       <c r="P52" s="152"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="145"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="99"/>
+      <c r="S52" s="97"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="119"/>
       <c r="V52" s="168"/>
-      <c r="W52" s="145"/>
+      <c r="W52" s="119"/>
       <c r="X52" s="169"/>
       <c r="Y52" s="168"/>
-      <c r="Z52" s="145"/>
+      <c r="Z52" s="119"/>
       <c r="AA52" s="169"/>
       <c r="AB52" s="168"/>
-      <c r="AC52" s="145"/>
+      <c r="AC52" s="119"/>
       <c r="AD52" s="169"/>
       <c r="AE52" s="168"/>
-      <c r="AF52" s="145"/>
+      <c r="AF52" s="119"/>
       <c r="AG52" s="169"/>
       <c r="AH52" s="168"/>
-      <c r="AI52" s="145"/>
+      <c r="AI52" s="119"/>
       <c r="AJ52" s="169"/>
       <c r="AK52" s="168"/>
-      <c r="AL52" s="113"/>
-      <c r="AM52" s="103"/>
-      <c r="AN52" s="80"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="80"/>
+      <c r="AN52" s="78"/>
       <c r="AO52" s="79"/>
-      <c r="AP52" s="109"/>
-      <c r="AQ52" s="110"/>
+      <c r="AP52" s="89"/>
+      <c r="AQ52" s="90"/>
       <c r="AR52" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS52" s="111"/>
-      <c r="AT52" s="112"/>
-      <c r="AU52" s="80"/>
+      <c r="AS52" s="91"/>
+      <c r="AT52" s="92"/>
+      <c r="AU52" s="78"/>
       <c r="AV52" s="79"/>
-      <c r="AW52" s="113"/>
-      <c r="AX52" s="103"/>
-      <c r="AY52" s="80"/>
+      <c r="AW52" s="88"/>
+      <c r="AX52" s="80"/>
+      <c r="AY52" s="78"/>
       <c r="AZ52" s="79"/>
-      <c r="BA52" s="109"/>
-      <c r="BB52" s="110"/>
+      <c r="BA52" s="89"/>
+      <c r="BB52" s="90"/>
       <c r="BC52" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD52" s="111"/>
-      <c r="BE52" s="112"/>
-      <c r="BF52" s="80"/>
+      <c r="BD52" s="91"/>
+      <c r="BE52" s="92"/>
+      <c r="BF52" s="78"/>
       <c r="BG52" s="79"/>
     </row>
     <row r="53" spans="1:59">
-      <c r="A53" s="43"/>
-      <c r="B53" s="81"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="108"/>
       <c r="C53" s="150"/>
       <c r="D53" s="151"/>
       <c r="E53" s="151"/>
@@ -5278,57 +5290,57 @@
       <c r="N53" s="151"/>
       <c r="O53" s="151"/>
       <c r="P53" s="152"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="145"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="97"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="119"/>
       <c r="V53" s="168"/>
-      <c r="W53" s="145"/>
+      <c r="W53" s="119"/>
       <c r="X53" s="169"/>
       <c r="Y53" s="168"/>
-      <c r="Z53" s="145"/>
+      <c r="Z53" s="119"/>
       <c r="AA53" s="169"/>
       <c r="AB53" s="168"/>
-      <c r="AC53" s="145"/>
+      <c r="AC53" s="119"/>
       <c r="AD53" s="169"/>
       <c r="AE53" s="168"/>
-      <c r="AF53" s="145"/>
+      <c r="AF53" s="119"/>
       <c r="AG53" s="169"/>
       <c r="AH53" s="168"/>
-      <c r="AI53" s="145"/>
+      <c r="AI53" s="119"/>
       <c r="AJ53" s="169"/>
       <c r="AK53" s="168"/>
-      <c r="AL53" s="113"/>
-      <c r="AM53" s="103"/>
-      <c r="AN53" s="80"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="80"/>
+      <c r="AN53" s="78"/>
       <c r="AO53" s="79"/>
-      <c r="AP53" s="109"/>
-      <c r="AQ53" s="110"/>
+      <c r="AP53" s="89"/>
+      <c r="AQ53" s="90"/>
       <c r="AR53" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS53" s="111"/>
-      <c r="AT53" s="112"/>
-      <c r="AU53" s="80"/>
+      <c r="AS53" s="91"/>
+      <c r="AT53" s="92"/>
+      <c r="AU53" s="78"/>
       <c r="AV53" s="79"/>
-      <c r="AW53" s="113"/>
-      <c r="AX53" s="103"/>
-      <c r="AY53" s="80"/>
+      <c r="AW53" s="88"/>
+      <c r="AX53" s="80"/>
+      <c r="AY53" s="78"/>
       <c r="AZ53" s="79"/>
-      <c r="BA53" s="109"/>
-      <c r="BB53" s="110"/>
+      <c r="BA53" s="89"/>
+      <c r="BB53" s="90"/>
       <c r="BC53" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD53" s="111"/>
-      <c r="BE53" s="112"/>
-      <c r="BF53" s="80"/>
+      <c r="BD53" s="91"/>
+      <c r="BE53" s="92"/>
+      <c r="BF53" s="78"/>
       <c r="BG53" s="79"/>
     </row>
     <row r="54" spans="1:59">
-      <c r="A54" s="43"/>
-      <c r="B54" s="81"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="150"/>
       <c r="D54" s="151"/>
       <c r="E54" s="151"/>
@@ -5343,167 +5355,167 @@
       <c r="N54" s="151"/>
       <c r="O54" s="151"/>
       <c r="P54" s="152"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="69"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="145"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="119"/>
       <c r="V54" s="168"/>
-      <c r="W54" s="145"/>
+      <c r="W54" s="119"/>
       <c r="X54" s="169"/>
       <c r="Y54" s="168"/>
-      <c r="Z54" s="145"/>
+      <c r="Z54" s="119"/>
       <c r="AA54" s="169"/>
       <c r="AB54" s="168"/>
-      <c r="AC54" s="145"/>
+      <c r="AC54" s="119"/>
       <c r="AD54" s="169"/>
       <c r="AE54" s="168"/>
-      <c r="AF54" s="145"/>
+      <c r="AF54" s="119"/>
       <c r="AG54" s="169"/>
       <c r="AH54" s="168"/>
-      <c r="AI54" s="145"/>
+      <c r="AI54" s="119"/>
       <c r="AJ54" s="169"/>
       <c r="AK54" s="168"/>
-      <c r="AL54" s="113"/>
-      <c r="AM54" s="103"/>
-      <c r="AN54" s="80"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="80"/>
+      <c r="AN54" s="78"/>
       <c r="AO54" s="79"/>
-      <c r="AP54" s="109"/>
-      <c r="AQ54" s="110"/>
+      <c r="AP54" s="89"/>
+      <c r="AQ54" s="90"/>
       <c r="AR54" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS54" s="111"/>
-      <c r="AT54" s="112"/>
-      <c r="AU54" s="80"/>
+      <c r="AS54" s="91"/>
+      <c r="AT54" s="92"/>
+      <c r="AU54" s="78"/>
       <c r="AV54" s="79"/>
-      <c r="AW54" s="113"/>
-      <c r="AX54" s="103"/>
-      <c r="AY54" s="80"/>
+      <c r="AW54" s="88"/>
+      <c r="AX54" s="80"/>
+      <c r="AY54" s="78"/>
       <c r="AZ54" s="79"/>
-      <c r="BA54" s="109"/>
-      <c r="BB54" s="110"/>
+      <c r="BA54" s="89"/>
+      <c r="BB54" s="90"/>
       <c r="BC54" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD54" s="111"/>
-      <c r="BE54" s="112"/>
-      <c r="BF54" s="80"/>
+      <c r="BD54" s="91"/>
+      <c r="BE54" s="92"/>
+      <c r="BF54" s="78"/>
       <c r="BG54" s="79"/>
     </row>
     <row r="55" spans="1:59" ht="13.95" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="31"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="121"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="121"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="122"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
+      <c r="M55" s="127"/>
+      <c r="N55" s="127"/>
+      <c r="O55" s="127"/>
+      <c r="P55" s="128"/>
       <c r="Q55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R55" s="121"/>
-      <c r="S55" s="121"/>
-      <c r="T55" s="121"/>
-      <c r="U55" s="121"/>
-      <c r="V55" s="121"/>
-      <c r="W55" s="122"/>
+      <c r="R55" s="127"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="127"/>
+      <c r="U55" s="127"/>
+      <c r="V55" s="127"/>
+      <c r="W55" s="128"/>
       <c r="X55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y55" s="121"/>
-      <c r="Z55" s="121"/>
-      <c r="AA55" s="121"/>
-      <c r="AB55" s="121"/>
-      <c r="AC55" s="121"/>
-      <c r="AD55" s="122"/>
+      <c r="Y55" s="127"/>
+      <c r="Z55" s="127"/>
+      <c r="AA55" s="127"/>
+      <c r="AB55" s="127"/>
+      <c r="AC55" s="127"/>
+      <c r="AD55" s="128"/>
       <c r="AE55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF55" s="121"/>
-      <c r="AG55" s="121"/>
-      <c r="AH55" s="121"/>
-      <c r="AI55" s="121"/>
-      <c r="AJ55" s="121"/>
-      <c r="AK55" s="122"/>
-      <c r="AL55" s="113"/>
-      <c r="AM55" s="103"/>
-      <c r="AN55" s="80"/>
+      <c r="AF55" s="127"/>
+      <c r="AG55" s="127"/>
+      <c r="AH55" s="127"/>
+      <c r="AI55" s="127"/>
+      <c r="AJ55" s="127"/>
+      <c r="AK55" s="128"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="80"/>
+      <c r="AN55" s="78"/>
       <c r="AO55" s="79"/>
-      <c r="AP55" s="109"/>
-      <c r="AQ55" s="110"/>
+      <c r="AP55" s="89"/>
+      <c r="AQ55" s="90"/>
       <c r="AR55" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS55" s="111"/>
-      <c r="AT55" s="112"/>
-      <c r="AU55" s="80"/>
+      <c r="AS55" s="91"/>
+      <c r="AT55" s="92"/>
+      <c r="AU55" s="78"/>
       <c r="AV55" s="79"/>
-      <c r="AW55" s="113"/>
-      <c r="AX55" s="103"/>
-      <c r="AY55" s="80"/>
+      <c r="AW55" s="88"/>
+      <c r="AX55" s="80"/>
+      <c r="AY55" s="78"/>
       <c r="AZ55" s="79"/>
-      <c r="BA55" s="109"/>
-      <c r="BB55" s="110"/>
+      <c r="BA55" s="89"/>
+      <c r="BB55" s="90"/>
       <c r="BC55" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD55" s="111"/>
-      <c r="BE55" s="112"/>
-      <c r="BF55" s="80"/>
+      <c r="BD55" s="91"/>
+      <c r="BE55" s="92"/>
+      <c r="BF55" s="78"/>
       <c r="BG55" s="79"/>
     </row>
     <row r="56" spans="1:59" ht="6.6" customHeight="1">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="237"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="237"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="237"/>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="35"/>
-      <c r="AJ56" s="35"/>
-      <c r="AK56" s="237"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="242"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="242"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+      <c r="AD56" s="242"/>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="32"/>
+      <c r="AH56" s="32"/>
+      <c r="AI56" s="32"/>
+      <c r="AJ56" s="32"/>
+      <c r="AK56" s="242"/>
       <c r="AL56" s="182"/>
       <c r="AM56" s="183"/>
       <c r="AN56" s="186"/>
@@ -5532,43 +5544,43 @@
       <c r="BG56" s="195"/>
     </row>
     <row r="57" spans="1:59" ht="6.6" customHeight="1">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="120"/>
-      <c r="AE57" s="36"/>
-      <c r="AF57" s="37"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
-      <c r="AK57" s="120"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="126"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="126"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="34"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="34"/>
+      <c r="AI57" s="34"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="126"/>
       <c r="AL57" s="184"/>
       <c r="AM57" s="185"/>
       <c r="AN57" s="188"/>
@@ -5630,31 +5642,31 @@
       <c r="AI58" s="166"/>
       <c r="AJ58" s="166"/>
       <c r="AK58" s="167"/>
-      <c r="AL58" s="113"/>
-      <c r="AM58" s="103"/>
-      <c r="AN58" s="80"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="80"/>
+      <c r="AN58" s="78"/>
       <c r="AO58" s="79"/>
-      <c r="AP58" s="109"/>
-      <c r="AQ58" s="110"/>
+      <c r="AP58" s="89"/>
+      <c r="AQ58" s="90"/>
       <c r="AR58" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS58" s="111"/>
-      <c r="AT58" s="112"/>
-      <c r="AU58" s="80"/>
+      <c r="AS58" s="91"/>
+      <c r="AT58" s="92"/>
+      <c r="AU58" s="78"/>
       <c r="AV58" s="79"/>
-      <c r="AW58" s="113"/>
-      <c r="AX58" s="103"/>
-      <c r="AY58" s="80"/>
+      <c r="AW58" s="88"/>
+      <c r="AX58" s="80"/>
+      <c r="AY58" s="78"/>
       <c r="AZ58" s="79"/>
-      <c r="BA58" s="109"/>
-      <c r="BB58" s="110"/>
+      <c r="BA58" s="89"/>
+      <c r="BB58" s="90"/>
       <c r="BC58" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD58" s="111"/>
-      <c r="BE58" s="112"/>
-      <c r="BF58" s="80"/>
+      <c r="BD58" s="91"/>
+      <c r="BE58" s="92"/>
+      <c r="BF58" s="78"/>
       <c r="BG58" s="79"/>
     </row>
     <row r="59" spans="1:59">
@@ -5705,31 +5717,31 @@
       <c r="AI59" s="154"/>
       <c r="AJ59" s="154"/>
       <c r="AK59" s="155"/>
-      <c r="AL59" s="113"/>
-      <c r="AM59" s="103"/>
-      <c r="AN59" s="80"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="80"/>
+      <c r="AN59" s="78"/>
       <c r="AO59" s="79"/>
-      <c r="AP59" s="109"/>
-      <c r="AQ59" s="110"/>
+      <c r="AP59" s="89"/>
+      <c r="AQ59" s="90"/>
       <c r="AR59" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS59" s="111"/>
-      <c r="AT59" s="112"/>
-      <c r="AU59" s="80"/>
+      <c r="AS59" s="91"/>
+      <c r="AT59" s="92"/>
+      <c r="AU59" s="78"/>
       <c r="AV59" s="79"/>
-      <c r="AW59" s="113"/>
-      <c r="AX59" s="103"/>
-      <c r="AY59" s="80"/>
+      <c r="AW59" s="88"/>
+      <c r="AX59" s="80"/>
+      <c r="AY59" s="78"/>
       <c r="AZ59" s="79"/>
-      <c r="BA59" s="109"/>
-      <c r="BB59" s="110"/>
+      <c r="BA59" s="89"/>
+      <c r="BB59" s="90"/>
       <c r="BC59" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD59" s="111"/>
-      <c r="BE59" s="112"/>
-      <c r="BF59" s="80"/>
+      <c r="BD59" s="91"/>
+      <c r="BE59" s="92"/>
+      <c r="BF59" s="78"/>
       <c r="BG59" s="79"/>
     </row>
     <row r="60" spans="1:59">
@@ -5770,31 +5782,31 @@
       <c r="AI60" s="157"/>
       <c r="AJ60" s="157"/>
       <c r="AK60" s="158"/>
-      <c r="AL60" s="113"/>
-      <c r="AM60" s="103"/>
-      <c r="AN60" s="80"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="80"/>
+      <c r="AN60" s="78"/>
       <c r="AO60" s="79"/>
-      <c r="AP60" s="109"/>
-      <c r="AQ60" s="110"/>
+      <c r="AP60" s="89"/>
+      <c r="AQ60" s="90"/>
       <c r="AR60" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS60" s="111"/>
-      <c r="AT60" s="112"/>
-      <c r="AU60" s="80"/>
+      <c r="AS60" s="91"/>
+      <c r="AT60" s="92"/>
+      <c r="AU60" s="78"/>
       <c r="AV60" s="79"/>
-      <c r="AW60" s="113"/>
-      <c r="AX60" s="103"/>
-      <c r="AY60" s="80"/>
+      <c r="AW60" s="88"/>
+      <c r="AX60" s="80"/>
+      <c r="AY60" s="78"/>
       <c r="AZ60" s="79"/>
-      <c r="BA60" s="109"/>
-      <c r="BB60" s="110"/>
+      <c r="BA60" s="89"/>
+      <c r="BB60" s="90"/>
       <c r="BC60" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD60" s="111"/>
-      <c r="BE60" s="112"/>
-      <c r="BF60" s="80"/>
+      <c r="BD60" s="91"/>
+      <c r="BE60" s="92"/>
+      <c r="BF60" s="78"/>
       <c r="BG60" s="79"/>
     </row>
     <row r="61" spans="1:59">
@@ -5824,48 +5836,48 @@
       <c r="R61" s="232"/>
       <c r="S61" s="223"/>
       <c r="T61" s="223"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="23"/>
-      <c r="AL61" s="113"/>
-      <c r="AM61" s="103"/>
-      <c r="AN61" s="80"/>
+      <c r="U61" s="85"/>
+      <c r="V61" s="86"/>
+      <c r="W61" s="86"/>
+      <c r="X61" s="86"/>
+      <c r="Y61" s="86"/>
+      <c r="Z61" s="86"/>
+      <c r="AA61" s="86"/>
+      <c r="AB61" s="86"/>
+      <c r="AC61" s="86"/>
+      <c r="AD61" s="86"/>
+      <c r="AE61" s="86"/>
+      <c r="AF61" s="86"/>
+      <c r="AG61" s="86"/>
+      <c r="AH61" s="86"/>
+      <c r="AI61" s="86"/>
+      <c r="AJ61" s="86"/>
+      <c r="AK61" s="87"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="80"/>
+      <c r="AN61" s="78"/>
       <c r="AO61" s="79"/>
-      <c r="AP61" s="109"/>
-      <c r="AQ61" s="110"/>
+      <c r="AP61" s="89"/>
+      <c r="AQ61" s="90"/>
       <c r="AR61" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS61" s="111"/>
-      <c r="AT61" s="112"/>
-      <c r="AU61" s="80"/>
+      <c r="AS61" s="91"/>
+      <c r="AT61" s="92"/>
+      <c r="AU61" s="78"/>
       <c r="AV61" s="79"/>
-      <c r="AW61" s="113"/>
-      <c r="AX61" s="103"/>
-      <c r="AY61" s="80"/>
+      <c r="AW61" s="88"/>
+      <c r="AX61" s="80"/>
+      <c r="AY61" s="78"/>
       <c r="AZ61" s="79"/>
-      <c r="BA61" s="109"/>
-      <c r="BB61" s="110"/>
+      <c r="BA61" s="89"/>
+      <c r="BB61" s="90"/>
       <c r="BC61" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD61" s="111"/>
-      <c r="BE61" s="112"/>
-      <c r="BF61" s="80"/>
+      <c r="BD61" s="91"/>
+      <c r="BE61" s="92"/>
+      <c r="BF61" s="78"/>
       <c r="BG61" s="79"/>
     </row>
     <row r="62" spans="1:59">
@@ -5877,9 +5889,9 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="143"/>
-      <c r="H62" s="143"/>
-      <c r="I62" s="144"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="118"/>
       <c r="J62" s="204" t="s">
         <v>34</v>
       </c>
@@ -5889,52 +5901,52 @@
       <c r="N62" s="205"/>
       <c r="O62" s="205"/>
       <c r="P62" s="205"/>
-      <c r="Q62" s="143"/>
-      <c r="R62" s="143"/>
-      <c r="S62" s="143"/>
-      <c r="T62" s="144"/>
-      <c r="U62" s="24"/>
-      <c r="V62" s="25"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
-      <c r="Z62" s="25"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="25"/>
-      <c r="AC62" s="25"/>
-      <c r="AD62" s="25"/>
-      <c r="AE62" s="25"/>
-      <c r="AF62" s="25"/>
-      <c r="AG62" s="25"/>
-      <c r="AH62" s="25"/>
-      <c r="AI62" s="25"/>
-      <c r="AJ62" s="25"/>
-      <c r="AK62" s="26"/>
-      <c r="AL62" s="113"/>
-      <c r="AM62" s="103"/>
-      <c r="AN62" s="80"/>
+      <c r="Q62" s="233"/>
+      <c r="R62" s="233"/>
+      <c r="S62" s="233"/>
+      <c r="T62" s="234"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="22"/>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22"/>
+      <c r="AJ62" s="22"/>
+      <c r="AK62" s="23"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="80"/>
+      <c r="AN62" s="78"/>
       <c r="AO62" s="79"/>
-      <c r="AP62" s="109"/>
-      <c r="AQ62" s="110"/>
+      <c r="AP62" s="89"/>
+      <c r="AQ62" s="90"/>
       <c r="AR62" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS62" s="111"/>
-      <c r="AT62" s="112"/>
-      <c r="AU62" s="80"/>
+      <c r="AS62" s="91"/>
+      <c r="AT62" s="92"/>
+      <c r="AU62" s="78"/>
       <c r="AV62" s="79"/>
-      <c r="AW62" s="113"/>
-      <c r="AX62" s="103"/>
-      <c r="AY62" s="80"/>
+      <c r="AW62" s="88"/>
+      <c r="AX62" s="80"/>
+      <c r="AY62" s="78"/>
       <c r="AZ62" s="79"/>
-      <c r="BA62" s="109"/>
-      <c r="BB62" s="110"/>
+      <c r="BA62" s="89"/>
+      <c r="BB62" s="90"/>
       <c r="BC62" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD62" s="111"/>
-      <c r="BE62" s="112"/>
-      <c r="BF62" s="80"/>
+      <c r="BD62" s="91"/>
+      <c r="BE62" s="92"/>
+      <c r="BF62" s="78"/>
       <c r="BG62" s="79"/>
     </row>
     <row r="63" spans="1:59">
@@ -5964,48 +5976,48 @@
       <c r="R63" s="230"/>
       <c r="S63" s="224"/>
       <c r="T63" s="224"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="25"/>
-      <c r="AC63" s="25"/>
-      <c r="AD63" s="25"/>
-      <c r="AE63" s="25"/>
-      <c r="AF63" s="25"/>
-      <c r="AG63" s="25"/>
-      <c r="AH63" s="25"/>
-      <c r="AI63" s="25"/>
-      <c r="AJ63" s="25"/>
-      <c r="AK63" s="26"/>
-      <c r="AL63" s="113"/>
-      <c r="AM63" s="103"/>
-      <c r="AN63" s="80"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="80"/>
+      <c r="AN63" s="78"/>
       <c r="AO63" s="79"/>
-      <c r="AP63" s="109"/>
-      <c r="AQ63" s="110"/>
+      <c r="AP63" s="89"/>
+      <c r="AQ63" s="90"/>
       <c r="AR63" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS63" s="111"/>
-      <c r="AT63" s="112"/>
-      <c r="AU63" s="80"/>
+      <c r="AS63" s="91"/>
+      <c r="AT63" s="92"/>
+      <c r="AU63" s="78"/>
       <c r="AV63" s="79"/>
-      <c r="AW63" s="113"/>
-      <c r="AX63" s="103"/>
-      <c r="AY63" s="80"/>
+      <c r="AW63" s="88"/>
+      <c r="AX63" s="80"/>
+      <c r="AY63" s="78"/>
       <c r="AZ63" s="79"/>
-      <c r="BA63" s="109"/>
-      <c r="BB63" s="110"/>
+      <c r="BA63" s="89"/>
+      <c r="BB63" s="90"/>
       <c r="BC63" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BD63" s="111"/>
-      <c r="BE63" s="112"/>
-      <c r="BF63" s="80"/>
+      <c r="BD63" s="91"/>
+      <c r="BE63" s="92"/>
+      <c r="BF63" s="78"/>
       <c r="BG63" s="79"/>
     </row>
     <row r="64" spans="1:59">
@@ -6035,57 +6047,57 @@
       <c r="R64" s="228"/>
       <c r="S64" s="222"/>
       <c r="T64" s="222"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
-      <c r="AE64" s="28"/>
-      <c r="AF64" s="28"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="28"/>
-      <c r="AI64" s="28"/>
-      <c r="AJ64" s="28"/>
-      <c r="AK64" s="29"/>
-      <c r="AL64" s="62" t="s">
+      <c r="U64" s="24"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="25"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="26"/>
+      <c r="AL64" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="AM64" s="62"/>
-      <c r="AN64" s="62" t="s">
+      <c r="AM64" s="84"/>
+      <c r="AN64" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="AO64" s="62"/>
-      <c r="AP64" s="62"/>
-      <c r="AQ64" s="62"/>
-      <c r="AR64" s="62" t="s">
+      <c r="AO64" s="84"/>
+      <c r="AP64" s="84"/>
+      <c r="AQ64" s="84"/>
+      <c r="AR64" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="AS64" s="62"/>
-      <c r="AT64" s="62"/>
-      <c r="AU64" s="62"/>
-      <c r="AV64" s="62"/>
-      <c r="AW64" s="62" t="s">
+      <c r="AS64" s="84"/>
+      <c r="AT64" s="84"/>
+      <c r="AU64" s="84"/>
+      <c r="AV64" s="84"/>
+      <c r="AW64" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="AX64" s="62"/>
-      <c r="AY64" s="62" t="s">
+      <c r="AX64" s="84"/>
+      <c r="AY64" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="AZ64" s="62"/>
-      <c r="BA64" s="62"/>
-      <c r="BB64" s="62"/>
-      <c r="BC64" s="62" t="s">
+      <c r="AZ64" s="84"/>
+      <c r="BA64" s="84"/>
+      <c r="BB64" s="84"/>
+      <c r="BC64" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="BD64" s="62"/>
-      <c r="BE64" s="62"/>
-      <c r="BF64" s="62"/>
-      <c r="BG64" s="62"/>
+      <c r="BD64" s="84"/>
+      <c r="BE64" s="84"/>
+      <c r="BF64" s="84"/>
+      <c r="BG64" s="84"/>
     </row>
     <row r="65" spans="1:59" ht="14.4" customHeight="1">
       <c r="A65" s="173"/>
@@ -6108,402 +6120,402 @@
       <c r="R65" s="174"/>
       <c r="S65" s="174"/>
       <c r="T65" s="175"/>
-      <c r="U65" s="76" t="s">
+      <c r="U65" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="V65" s="63"/>
-      <c r="W65" s="63"/>
-      <c r="X65" s="63"/>
-      <c r="Y65" s="63"/>
-      <c r="Z65" s="63"/>
-      <c r="AA65" s="63"/>
-      <c r="AB65" s="63"/>
-      <c r="AC65" s="63"/>
-      <c r="AD65" s="63"/>
-      <c r="AE65" s="63"/>
-      <c r="AF65" s="63"/>
-      <c r="AG65" s="63"/>
-      <c r="AH65" s="63"/>
-      <c r="AI65" s="63"/>
-      <c r="AJ65" s="63"/>
-      <c r="AK65" s="77"/>
-      <c r="AL65" s="61" t="s">
+      <c r="V65" s="93"/>
+      <c r="W65" s="93"/>
+      <c r="X65" s="93"/>
+      <c r="Y65" s="93"/>
+      <c r="Z65" s="93"/>
+      <c r="AA65" s="93"/>
+      <c r="AB65" s="93"/>
+      <c r="AC65" s="93"/>
+      <c r="AD65" s="93"/>
+      <c r="AE65" s="93"/>
+      <c r="AF65" s="93"/>
+      <c r="AG65" s="93"/>
+      <c r="AH65" s="93"/>
+      <c r="AI65" s="93"/>
+      <c r="AJ65" s="93"/>
+      <c r="AK65" s="107"/>
+      <c r="AL65" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AM65" s="61"/>
-      <c r="AN65" s="60"/>
-      <c r="AO65" s="60"/>
-      <c r="AP65" s="60"/>
-      <c r="AQ65" s="60"/>
-      <c r="AR65" s="60"/>
-      <c r="AS65" s="60"/>
-      <c r="AT65" s="60"/>
-      <c r="AU65" s="60"/>
-      <c r="AV65" s="60"/>
-      <c r="AW65" s="61" t="s">
+      <c r="AM65" s="83"/>
+      <c r="AN65" s="82"/>
+      <c r="AO65" s="82"/>
+      <c r="AP65" s="82"/>
+      <c r="AQ65" s="82"/>
+      <c r="AR65" s="82"/>
+      <c r="AS65" s="82"/>
+      <c r="AT65" s="82"/>
+      <c r="AU65" s="82"/>
+      <c r="AV65" s="82"/>
+      <c r="AW65" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AX65" s="61"/>
-      <c r="AY65" s="60"/>
-      <c r="AZ65" s="60"/>
-      <c r="BA65" s="60"/>
-      <c r="BB65" s="60"/>
-      <c r="BC65" s="60"/>
-      <c r="BD65" s="60"/>
-      <c r="BE65" s="60"/>
-      <c r="BF65" s="60"/>
-      <c r="BG65" s="60"/>
+      <c r="AX65" s="83"/>
+      <c r="AY65" s="82"/>
+      <c r="AZ65" s="82"/>
+      <c r="BA65" s="82"/>
+      <c r="BB65" s="82"/>
+      <c r="BC65" s="82"/>
+      <c r="BD65" s="82"/>
+      <c r="BE65" s="82"/>
+      <c r="BF65" s="82"/>
+      <c r="BG65" s="82"/>
     </row>
     <row r="66" spans="1:59" ht="14.4" customHeight="1">
       <c r="A66" s="176" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="177"/>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="49" t="s">
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="50"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="53"/>
-      <c r="Y66" s="53"/>
-      <c r="Z66" s="53"/>
-      <c r="AA66" s="53"/>
-      <c r="AB66" s="53"/>
-      <c r="AC66" s="53"/>
-      <c r="AD66" s="54"/>
-      <c r="AE66" s="57" t="s">
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Y66" s="50"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="50"/>
+      <c r="AD66" s="51"/>
+      <c r="AE66" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="AF66" s="58"/>
-      <c r="AG66" s="58"/>
-      <c r="AH66" s="58"/>
-      <c r="AI66" s="58"/>
-      <c r="AJ66" s="58"/>
-      <c r="AK66" s="59"/>
-      <c r="AL66" s="61"/>
-      <c r="AM66" s="61"/>
-      <c r="AN66" s="60"/>
-      <c r="AO66" s="60"/>
-      <c r="AP66" s="60"/>
-      <c r="AQ66" s="60"/>
-      <c r="AR66" s="60"/>
-      <c r="AS66" s="60"/>
-      <c r="AT66" s="60"/>
-      <c r="AU66" s="60"/>
-      <c r="AV66" s="60"/>
-      <c r="AW66" s="61"/>
-      <c r="AX66" s="61"/>
-      <c r="AY66" s="60"/>
-      <c r="AZ66" s="60"/>
-      <c r="BA66" s="60"/>
-      <c r="BB66" s="60"/>
-      <c r="BC66" s="60"/>
-      <c r="BD66" s="60"/>
-      <c r="BE66" s="60"/>
-      <c r="BF66" s="60"/>
-      <c r="BG66" s="60"/>
+      <c r="AF66" s="244"/>
+      <c r="AG66" s="244"/>
+      <c r="AH66" s="93"/>
+      <c r="AI66" s="93"/>
+      <c r="AJ66" s="93"/>
+      <c r="AK66" s="107"/>
+      <c r="AL66" s="83"/>
+      <c r="AM66" s="83"/>
+      <c r="AN66" s="82"/>
+      <c r="AO66" s="82"/>
+      <c r="AP66" s="82"/>
+      <c r="AQ66" s="82"/>
+      <c r="AR66" s="82"/>
+      <c r="AS66" s="82"/>
+      <c r="AT66" s="82"/>
+      <c r="AU66" s="82"/>
+      <c r="AV66" s="82"/>
+      <c r="AW66" s="83"/>
+      <c r="AX66" s="83"/>
+      <c r="AY66" s="82"/>
+      <c r="AZ66" s="82"/>
+      <c r="BA66" s="82"/>
+      <c r="BB66" s="82"/>
+      <c r="BC66" s="82"/>
+      <c r="BD66" s="82"/>
+      <c r="BE66" s="82"/>
+      <c r="BF66" s="82"/>
+      <c r="BG66" s="82"/>
     </row>
     <row r="67" spans="1:59">
       <c r="A67" s="178"/>
       <c r="B67" s="179"/>
-      <c r="C67" s="57" t="s">
+      <c r="C67" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="49" t="s">
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="50"/>
-      <c r="W67" s="53"/>
-      <c r="X67" s="53"/>
-      <c r="Y67" s="53"/>
-      <c r="Z67" s="53"/>
-      <c r="AA67" s="53"/>
-      <c r="AB67" s="53"/>
-      <c r="AC67" s="53"/>
-      <c r="AD67" s="54"/>
-      <c r="AE67" s="57" t="s">
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="50"/>
+      <c r="X67" s="50"/>
+      <c r="Y67" s="50"/>
+      <c r="Z67" s="50"/>
+      <c r="AA67" s="50"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="50"/>
+      <c r="AD67" s="51"/>
+      <c r="AE67" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="AF67" s="58"/>
-      <c r="AG67" s="58"/>
-      <c r="AH67" s="58"/>
-      <c r="AI67" s="58"/>
-      <c r="AJ67" s="58"/>
-      <c r="AK67" s="59"/>
-      <c r="AL67" s="57" t="s">
+      <c r="AF67" s="244"/>
+      <c r="AG67" s="244"/>
+      <c r="AH67" s="93"/>
+      <c r="AI67" s="93"/>
+      <c r="AJ67" s="93"/>
+      <c r="AK67" s="107"/>
+      <c r="AL67" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AM67" s="58"/>
-      <c r="AN67" s="58"/>
-      <c r="AO67" s="58"/>
-      <c r="AP67" s="58"/>
-      <c r="AQ67" s="58"/>
-      <c r="AR67" s="44"/>
-      <c r="AS67" s="44"/>
-      <c r="AT67" s="44"/>
-      <c r="AU67" s="44"/>
-      <c r="AV67" s="44"/>
-      <c r="AW67" s="44"/>
-      <c r="AX67" s="44"/>
-      <c r="AY67" s="44"/>
-      <c r="AZ67" s="44"/>
-      <c r="BA67" s="44"/>
-      <c r="BB67" s="44"/>
-      <c r="BC67" s="44"/>
-      <c r="BD67" s="44"/>
-      <c r="BE67" s="44"/>
-      <c r="BF67" s="44"/>
-      <c r="BG67" s="81"/>
+      <c r="AM67" s="55"/>
+      <c r="AN67" s="55"/>
+      <c r="AO67" s="55"/>
+      <c r="AP67" s="55"/>
+      <c r="AQ67" s="55"/>
+      <c r="AR67" s="41"/>
+      <c r="AS67" s="41"/>
+      <c r="AT67" s="41"/>
+      <c r="AU67" s="41"/>
+      <c r="AV67" s="41"/>
+      <c r="AW67" s="41"/>
+      <c r="AX67" s="41"/>
+      <c r="AY67" s="41"/>
+      <c r="AZ67" s="41"/>
+      <c r="BA67" s="41"/>
+      <c r="BB67" s="41"/>
+      <c r="BC67" s="41"/>
+      <c r="BD67" s="41"/>
+      <c r="BE67" s="41"/>
+      <c r="BF67" s="41"/>
+      <c r="BG67" s="108"/>
     </row>
     <row r="68" spans="1:59" ht="13.8">
       <c r="A68" s="178"/>
       <c r="B68" s="179"/>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="59"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="51"/>
-      <c r="P68" s="51"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="49" t="s">
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="53"/>
-      <c r="X68" s="53"/>
-      <c r="Y68" s="53"/>
-      <c r="Z68" s="53"/>
-      <c r="AA68" s="53"/>
-      <c r="AB68" s="53"/>
-      <c r="AC68" s="53"/>
-      <c r="AD68" s="54"/>
-      <c r="AE68" s="57" t="s">
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="50"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="50"/>
+      <c r="AD68" s="51"/>
+      <c r="AE68" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="AF68" s="58"/>
-      <c r="AG68" s="58"/>
-      <c r="AH68" s="58"/>
-      <c r="AI68" s="58"/>
-      <c r="AJ68" s="58"/>
-      <c r="AK68" s="59"/>
-      <c r="AL68" s="57" t="s">
+      <c r="AF68" s="244"/>
+      <c r="AG68" s="244"/>
+      <c r="AH68" s="93"/>
+      <c r="AI68" s="93"/>
+      <c r="AJ68" s="93"/>
+      <c r="AK68" s="107"/>
+      <c r="AL68" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="AM68" s="58"/>
-      <c r="AN68" s="58"/>
-      <c r="AO68" s="58"/>
-      <c r="AP68" s="59"/>
-      <c r="AQ68" s="64"/>
-      <c r="AR68" s="65"/>
+      <c r="AM68" s="55"/>
+      <c r="AN68" s="55"/>
+      <c r="AO68" s="55"/>
+      <c r="AP68" s="56"/>
+      <c r="AQ68" s="94"/>
+      <c r="AR68" s="95"/>
       <c r="AS68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AT68" s="66"/>
-      <c r="AU68" s="64"/>
-      <c r="AV68" s="63" t="s">
+      <c r="AT68" s="96"/>
+      <c r="AU68" s="94"/>
+      <c r="AV68" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="AW68" s="63"/>
-      <c r="AX68" s="63"/>
-      <c r="AY68" s="63"/>
-      <c r="AZ68" s="63"/>
-      <c r="BA68" s="63"/>
-      <c r="BB68" s="63"/>
-      <c r="BC68" s="64"/>
-      <c r="BD68" s="65"/>
+      <c r="AW68" s="93"/>
+      <c r="AX68" s="93"/>
+      <c r="AY68" s="93"/>
+      <c r="AZ68" s="93"/>
+      <c r="BA68" s="93"/>
+      <c r="BB68" s="93"/>
+      <c r="BC68" s="94"/>
+      <c r="BD68" s="95"/>
       <c r="BE68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BF68" s="66"/>
-      <c r="BG68" s="64"/>
+      <c r="BF68" s="96"/>
+      <c r="BG68" s="94"/>
     </row>
     <row r="69" spans="1:59" ht="13.8">
       <c r="A69" s="178"/>
       <c r="B69" s="179"/>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="49" t="s">
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
-      <c r="W69" s="55"/>
-      <c r="X69" s="55"/>
-      <c r="Y69" s="55"/>
-      <c r="Z69" s="55"/>
-      <c r="AA69" s="55"/>
-      <c r="AB69" s="55"/>
-      <c r="AC69" s="55"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="57" t="s">
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+      <c r="AC69" s="52"/>
+      <c r="AD69" s="53"/>
+      <c r="AE69" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="AF69" s="58"/>
-      <c r="AG69" s="58"/>
-      <c r="AH69" s="58"/>
-      <c r="AI69" s="58"/>
-      <c r="AJ69" s="58"/>
-      <c r="AK69" s="59"/>
-      <c r="AL69" s="76" t="s">
+      <c r="AF69" s="244"/>
+      <c r="AG69" s="244"/>
+      <c r="AH69" s="93"/>
+      <c r="AI69" s="93"/>
+      <c r="AJ69" s="93"/>
+      <c r="AK69" s="107"/>
+      <c r="AL69" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AM69" s="63"/>
-      <c r="AN69" s="63"/>
-      <c r="AO69" s="63"/>
-      <c r="AP69" s="63"/>
-      <c r="AQ69" s="107"/>
-      <c r="AR69" s="107"/>
-      <c r="AS69" s="107"/>
-      <c r="AT69" s="107"/>
-      <c r="AU69" s="107"/>
-      <c r="AV69" s="107"/>
-      <c r="AW69" s="107"/>
-      <c r="AX69" s="107"/>
-      <c r="AY69" s="107"/>
-      <c r="AZ69" s="107"/>
-      <c r="BA69" s="107"/>
-      <c r="BB69" s="107"/>
-      <c r="BC69" s="107"/>
-      <c r="BD69" s="107"/>
-      <c r="BE69" s="107"/>
-      <c r="BF69" s="107"/>
-      <c r="BG69" s="108"/>
+      <c r="AM69" s="93"/>
+      <c r="AN69" s="93"/>
+      <c r="AO69" s="93"/>
+      <c r="AP69" s="93"/>
+      <c r="AQ69" s="112"/>
+      <c r="AR69" s="112"/>
+      <c r="AS69" s="112"/>
+      <c r="AT69" s="112"/>
+      <c r="AU69" s="112"/>
+      <c r="AV69" s="112"/>
+      <c r="AW69" s="112"/>
+      <c r="AX69" s="112"/>
+      <c r="AY69" s="112"/>
+      <c r="AZ69" s="112"/>
+      <c r="BA69" s="112"/>
+      <c r="BB69" s="112"/>
+      <c r="BC69" s="112"/>
+      <c r="BD69" s="112"/>
+      <c r="BE69" s="112"/>
+      <c r="BF69" s="112"/>
+      <c r="BG69" s="113"/>
     </row>
     <row r="70" spans="1:59">
       <c r="A70" s="180"/>
       <c r="B70" s="181"/>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="59"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="51"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="51"/>
-      <c r="P70" s="51"/>
-      <c r="Q70" s="51"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="49" t="s">
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="50"/>
-      <c r="W70" s="53"/>
-      <c r="X70" s="53"/>
-      <c r="Y70" s="53"/>
-      <c r="Z70" s="53"/>
-      <c r="AA70" s="53"/>
-      <c r="AB70" s="53"/>
-      <c r="AC70" s="53"/>
-      <c r="AD70" s="54"/>
-      <c r="AE70" s="57" t="s">
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+      <c r="Y70" s="50"/>
+      <c r="Z70" s="50"/>
+      <c r="AA70" s="50"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="50"/>
+      <c r="AD70" s="51"/>
+      <c r="AE70" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="AF70" s="58"/>
-      <c r="AG70" s="58"/>
-      <c r="AH70" s="58"/>
-      <c r="AI70" s="58"/>
-      <c r="AJ70" s="58"/>
-      <c r="AK70" s="59"/>
-      <c r="AL70" s="43" t="s">
+      <c r="AF70" s="244"/>
+      <c r="AG70" s="244"/>
+      <c r="AH70" s="93"/>
+      <c r="AI70" s="93"/>
+      <c r="AJ70" s="93"/>
+      <c r="AK70" s="107"/>
+      <c r="AL70" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AM70" s="44"/>
-      <c r="AN70" s="44"/>
-      <c r="AO70" s="44"/>
-      <c r="AP70" s="44"/>
-      <c r="AQ70" s="41"/>
-      <c r="AR70" s="41"/>
-      <c r="AS70" s="41"/>
-      <c r="AT70" s="41"/>
-      <c r="AU70" s="41"/>
-      <c r="AV70" s="41"/>
-      <c r="AW70" s="41"/>
-      <c r="AX70" s="41"/>
-      <c r="AY70" s="41"/>
-      <c r="AZ70" s="41"/>
-      <c r="BA70" s="41"/>
-      <c r="BB70" s="41"/>
-      <c r="BC70" s="41"/>
-      <c r="BD70" s="41"/>
-      <c r="BE70" s="41"/>
-      <c r="BF70" s="41"/>
-      <c r="BG70" s="42"/>
+      <c r="AM70" s="41"/>
+      <c r="AN70" s="41"/>
+      <c r="AO70" s="41"/>
+      <c r="AP70" s="41"/>
+      <c r="AQ70" s="38"/>
+      <c r="AR70" s="38"/>
+      <c r="AS70" s="38"/>
+      <c r="AT70" s="38"/>
+      <c r="AU70" s="38"/>
+      <c r="AV70" s="38"/>
+      <c r="AW70" s="38"/>
+      <c r="AX70" s="38"/>
+      <c r="AY70" s="38"/>
+      <c r="AZ70" s="38"/>
+      <c r="BA70" s="38"/>
+      <c r="BB70" s="38"/>
+      <c r="BC70" s="38"/>
+      <c r="BD70" s="38"/>
+      <c r="BE70" s="38"/>
+      <c r="BF70" s="38"/>
+      <c r="BG70" s="39"/>
     </row>
     <row r="71" spans="1:59">
       <c r="A71" s="204" t="s">
@@ -6570,6 +6582,18 @@
     </row>
   </sheetData>
   <mergeCells count="1069">
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="AH68:AK68"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AH70:AK70"/>
+    <mergeCell ref="AY61:AZ61"/>
+    <mergeCell ref="AY62:AZ62"/>
+    <mergeCell ref="AY63:AZ63"/>
+    <mergeCell ref="AP62:AQ62"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="AI51:AK51"/>
+    <mergeCell ref="Z32:AB32"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AK8"/>
     <mergeCell ref="K55:P55"/>
@@ -6595,16 +6619,6 @@
     <mergeCell ref="C51:P51"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AC51:AE51"/>
-    <mergeCell ref="AL4:BG5"/>
-    <mergeCell ref="AQ1:AX1"/>
-    <mergeCell ref="AY1:BG1"/>
-    <mergeCell ref="AQ2:BG2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A6:Q6"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="O63:P63"/>
     <mergeCell ref="O64:P64"/>
@@ -6624,13 +6638,49 @@
     <mergeCell ref="X59:AD60"/>
     <mergeCell ref="AE59:AK60"/>
     <mergeCell ref="A61:L61"/>
-    <mergeCell ref="AY61:AZ61"/>
-    <mergeCell ref="AY62:AZ62"/>
-    <mergeCell ref="AY63:AZ63"/>
-    <mergeCell ref="AP62:AQ62"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="AI51:AK51"/>
-    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AC51:AE51"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AW59:AX59"/>
+    <mergeCell ref="AP59:AQ59"/>
+    <mergeCell ref="AS59:AT59"/>
+    <mergeCell ref="AP60:AQ60"/>
+    <mergeCell ref="AS60:AT60"/>
+    <mergeCell ref="BA59:BB59"/>
+    <mergeCell ref="BD59:BE59"/>
+    <mergeCell ref="BA60:BB60"/>
+    <mergeCell ref="BD60:BE60"/>
+    <mergeCell ref="AY59:AZ59"/>
+    <mergeCell ref="AY60:AZ60"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="AL4:BG5"/>
+    <mergeCell ref="AQ1:AX1"/>
+    <mergeCell ref="AY1:BG1"/>
+    <mergeCell ref="AQ2:BG2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="BD58:BE58"/>
+    <mergeCell ref="AY58:AZ58"/>
+    <mergeCell ref="AS56:AT57"/>
+    <mergeCell ref="AU56:AV57"/>
+    <mergeCell ref="AW56:AX57"/>
+    <mergeCell ref="AY56:AZ57"/>
+    <mergeCell ref="BA56:BB57"/>
+    <mergeCell ref="BC56:BC57"/>
+    <mergeCell ref="BD56:BE57"/>
+    <mergeCell ref="BF56:BG57"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="AL56:AM57"/>
+    <mergeCell ref="AN56:AO57"/>
+    <mergeCell ref="AP56:AQ57"/>
+    <mergeCell ref="AR56:AR57"/>
     <mergeCell ref="A71:BG71"/>
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="AB8:AE8"/>
@@ -6648,43 +6698,6 @@
     <mergeCell ref="BF60:BG60"/>
     <mergeCell ref="AL59:AM59"/>
     <mergeCell ref="AN59:AO59"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AW59:AX59"/>
-    <mergeCell ref="AP59:AQ59"/>
-    <mergeCell ref="AS59:AT59"/>
-    <mergeCell ref="AP60:AQ60"/>
-    <mergeCell ref="AS60:AT60"/>
-    <mergeCell ref="BA59:BB59"/>
-    <mergeCell ref="BD59:BE59"/>
-    <mergeCell ref="BA60:BB60"/>
-    <mergeCell ref="BD60:BE60"/>
-    <mergeCell ref="AY59:AZ59"/>
-    <mergeCell ref="AY60:AZ60"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="AL58:AM58"/>
-    <mergeCell ref="AN58:AO58"/>
-    <mergeCell ref="AW58:AX58"/>
-    <mergeCell ref="BF58:BG58"/>
-    <mergeCell ref="AP58:AQ58"/>
-    <mergeCell ref="AS58:AT58"/>
-    <mergeCell ref="BA58:BB58"/>
-    <mergeCell ref="BD58:BE58"/>
-    <mergeCell ref="AY58:AZ58"/>
-    <mergeCell ref="AS56:AT57"/>
-    <mergeCell ref="AU56:AV57"/>
-    <mergeCell ref="AW56:AX57"/>
-    <mergeCell ref="AY56:AZ57"/>
-    <mergeCell ref="BA56:BB57"/>
-    <mergeCell ref="BC56:BC57"/>
-    <mergeCell ref="BD56:BE57"/>
-    <mergeCell ref="BF56:BG57"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="AL56:AM57"/>
-    <mergeCell ref="AN56:AO57"/>
-    <mergeCell ref="AP56:AQ57"/>
-    <mergeCell ref="AR56:AR57"/>
     <mergeCell ref="Z58:AB58"/>
     <mergeCell ref="AC58:AD58"/>
     <mergeCell ref="AE58:AG58"/>
@@ -6710,6 +6723,13 @@
     <mergeCell ref="BD55:BE55"/>
     <mergeCell ref="AY54:AZ54"/>
     <mergeCell ref="AY55:AZ55"/>
+    <mergeCell ref="AL58:AM58"/>
+    <mergeCell ref="AN58:AO58"/>
+    <mergeCell ref="AW58:AX58"/>
+    <mergeCell ref="BF58:BG58"/>
+    <mergeCell ref="AP58:AQ58"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="BA58:BB58"/>
     <mergeCell ref="BF52:BG52"/>
     <mergeCell ref="AL53:AM53"/>
     <mergeCell ref="AN53:AO53"/>
@@ -7041,6 +7061,7 @@
     <mergeCell ref="AS22:AT22"/>
     <mergeCell ref="AY21:AZ21"/>
     <mergeCell ref="AY22:AZ22"/>
+    <mergeCell ref="BA22:BB22"/>
     <mergeCell ref="A65:T65"/>
     <mergeCell ref="U65:AK65"/>
     <mergeCell ref="C66:G66"/>
@@ -7237,6 +7258,8 @@
     <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="AF40:AH40"/>
     <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:P37"/>
     <mergeCell ref="Q37:R37"/>
@@ -7257,6 +7280,8 @@
     <mergeCell ref="AC38:AE38"/>
     <mergeCell ref="AF38:AH38"/>
     <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
@@ -7287,8 +7312,8 @@
     <mergeCell ref="AC13:AE13"/>
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="W26:Y26"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="AC14:AE14"/>
     <mergeCell ref="AF14:AH14"/>
@@ -7319,8 +7344,8 @@
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="S24:T24"/>
     <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A33:I34"/>
     <mergeCell ref="J33:P34"/>
@@ -7351,8 +7376,14 @@
     <mergeCell ref="Z25:AB25"/>
     <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="AF25:AH25"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W18:Y18"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="C23:P23"/>
@@ -7377,51 +7408,6 @@
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="C10:P10"/>
     <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="D9:T9"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="Z10:AB10"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q28:R28"/>
@@ -7440,6 +7426,57 @@
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="BF10:BG10"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="D9:T9"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="BA16:BB16"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BD18:BE18"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="BA20:BB20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BD21:BE21"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="Q13:R13"/>
@@ -7447,33 +7484,18 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="S28:T28"/>
     <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="R3:S8"/>
     <mergeCell ref="AN11:AT11"/>
-    <mergeCell ref="AL10:AM10"/>
     <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AU10:AV10"/>
     <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AW10:AX10"/>
     <mergeCell ref="AW11:AX11"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="BF10:BG10"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="W13:Y13"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="Q10:R10"/>
@@ -7491,22 +7513,21 @@
     <mergeCell ref="X31:AD31"/>
     <mergeCell ref="AS63:AT63"/>
     <mergeCell ref="BA15:BB15"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="BA16:BB16"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BA17:BB17"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BA18:BB18"/>
-    <mergeCell ref="BD18:BE18"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="BA20:BB20"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="BA21:BB21"/>
-    <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="BA22:BB22"/>
-    <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="R3:S8"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="AY12:AZ14"/>
@@ -7537,8 +7558,8 @@
     <mergeCell ref="AU62:AV62"/>
     <mergeCell ref="AW62:AX62"/>
     <mergeCell ref="BF62:BG62"/>
-    <mergeCell ref="AL61:AM61"/>
-    <mergeCell ref="AN61:AO61"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="W10:Y10"/>
     <mergeCell ref="AU61:AV61"/>
     <mergeCell ref="AW61:AX61"/>
     <mergeCell ref="AP61:AQ61"/>
@@ -7569,16 +7590,12 @@
     <mergeCell ref="BF12:BG14"/>
     <mergeCell ref="AL12:AM14"/>
     <mergeCell ref="AN12:AO14"/>
-    <mergeCell ref="AP12:AT14"/>
-    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="BD22:BE22"/>
+    <mergeCell ref="BA23:BB23"/>
     <mergeCell ref="AW12:AX14"/>
     <mergeCell ref="BF15:BG15"/>
     <mergeCell ref="AL16:AM16"/>
     <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AE67:AK67"/>
-    <mergeCell ref="AE68:AK68"/>
-    <mergeCell ref="AE69:AK69"/>
-    <mergeCell ref="AE70:AK70"/>
     <mergeCell ref="AR65:AV66"/>
     <mergeCell ref="AW65:AX66"/>
     <mergeCell ref="AY65:BB66"/>
@@ -7589,26 +7606,20 @@
     <mergeCell ref="AI12:AK12"/>
     <mergeCell ref="AF21:AH21"/>
     <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
     <mergeCell ref="AC22:AE22"/>
     <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
     <mergeCell ref="AI13:AK13"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
     <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="AC17:AE17"/>
     <mergeCell ref="AF17:AH17"/>
     <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="W18:Y18"/>
     <mergeCell ref="AC21:AE21"/>
     <mergeCell ref="AI22:AK22"/>
     <mergeCell ref="AF18:AH18"/>
     <mergeCell ref="U61:AK61"/>
     <mergeCell ref="U62:AK62"/>
+    <mergeCell ref="AL61:AM61"/>
+    <mergeCell ref="AN61:AO61"/>
     <mergeCell ref="U63:AK64"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:I31"/>
@@ -7638,7 +7649,8 @@
     <mergeCell ref="W68:AD68"/>
     <mergeCell ref="W69:AD69"/>
     <mergeCell ref="W70:AD70"/>
-    <mergeCell ref="AE66:AK66"/>
+    <mergeCell ref="AP12:AT14"/>
+    <mergeCell ref="AU12:AV14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0" header="0" footer="0"/>
